--- a/Tab_4b_Grafikoptionen.xlsx
+++ b/Tab_4b_Grafikoptionen.xlsx
@@ -64,6 +64,11 @@
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,6 +230,20 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -254,6 +279,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -551,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -564,7 +593,7 @@
     <col customWidth="true" min="3" max="3" width="18.75"/>
     <col customWidth="true" min="4" max="4" width="18.75"/>
     <col customWidth="true" min="5" max="5" width="18.75"/>
-    <col customWidth="true" min="6" max="6" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="22.1171875"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="27.68359375"/>
     <col customWidth="true" min="9" max="9" width="28.7109375"/>
@@ -630,7 +659,7 @@
     <col customWidth="true" min="69" max="69" width="36.62109375"/>
     <col customWidth="true" min="70" max="70" width="24.31640625"/>
     <col customWidth="true" min="71" max="71" width="32.51953125"/>
-    <col customWidth="true" min="72" max="72" width="20.21484375"/>
+    <col customWidth="true" min="72" max="72" width="30.61328125"/>
     <col customWidth="true" min="73" max="73" width="35.0078125"/>
     <col customWidth="true" min="74" max="74" width="34.71484375"/>
     <col customWidth="true" min="75" max="75" width="32.51953125"/>
@@ -641,6 +670,8 @@
     <col customWidth="true" min="80" max="80" width="20.21484375"/>
     <col customWidth="true" min="81" max="81" width="35.0078125"/>
     <col customWidth="true" min="82" max="82" width="34.71484375"/>
+    <col customWidth="true" min="83" max="83" width="13.8359375"/>
+    <col customWidth="true" min="84" max="84" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -806,7 +837,7 @@
       </c>
       <c r="AG1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 2  Spezifikation</t>
+          <t>Untertitel 2 Spezifikation</t>
         </is>
       </c>
       <c r="AH1" s="2" t="inlineStr">
@@ -821,7 +852,7 @@
       </c>
       <c r="AJ1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 3  Spezifikation</t>
+          <t>Untertitel 3 Spezifikation</t>
         </is>
       </c>
       <c r="AK1" s="2" t="inlineStr">
@@ -836,7 +867,7 @@
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 4  Spezifikation</t>
+          <t>Untertitel 4 Spezifikation</t>
         </is>
       </c>
       <c r="AN1" s="2" t="inlineStr">
@@ -1052,6 +1083,16 @@
       <c r="CD1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 3 Beschriftung En</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>x-Achsenbezeichnung De</t>
+        </is>
+      </c>
+      <c r="CF1" s="2" t="inlineStr">
+        <is>
+          <t>x-Achsenbezeichnung En</t>
         </is>
       </c>
     </row>
@@ -1099,6 +1140,9 @@
           <t/>
         </is>
       </c>
+      <c r="J2" s="6">
+        <v>-2</v>
+      </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1234,12 +1278,12 @@
       </c>
       <c r="AQ2" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Für Deutschland: 2020 Endergebnisse, 2021 Erstergebnisse.&lt;br&gt;Für EU: 2019 von Eurostat geschätzte Daten, ab 2020: EU-27 (ohne Vereinigtes Königreich).</t>
         </is>
       </c>
       <c r="AR2" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>The 'Life in Europe' survey (EU-SILC), which was previously conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;For Germany: 2020 final results, 2021 first results.&lt;br&gt;For the EU: 2019 data estimated by Eurostat, from 2020: EU-27 (without UK).</t>
         </is>
       </c>
       <c r="AS2" s="4" t="inlineStr">
@@ -1249,16 +1293,12 @@
       </c>
       <c r="AT2" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.
-Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar.
-EU: Geschätzte Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU2" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.
-The results from 2020 onwards are only comparable with previous years to a limited extent.
-EU: Data estimated.</t>
+          <t/>
         </is>
       </c>
       <c r="AV2" s="4" t="inlineStr">
@@ -1293,18 +1333,21 @@
       </c>
       <c r="BB2" s="4" t="inlineStr">
         <is>
-          <t>Deutschland/EU-28</t>
+          <t>Deutschland/Europäische Union</t>
         </is>
       </c>
       <c r="BC2" s="4" t="inlineStr">
         <is>
-          <t>Germany/EU-28</t>
+          <t>Germany/Eropean Union</t>
         </is>
       </c>
       <c r="BD2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE2" s="8">
+        <v>1</v>
       </c>
       <c r="BF2" s="4" t="inlineStr">
         <is>
@@ -1330,6 +1373,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN2" s="6">
+        <v>2</v>
+      </c>
       <c r="BO2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1345,6 +1391,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT2" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1381,6 +1430,16 @@
         </is>
       </c>
       <c r="CD2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1402,7 +1461,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01_P01_Ib01_I01_Z01</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1412,7 +1471,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01_P01_Ib01_I01_Z02</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -1502,32 +1561,32 @@
       </c>
       <c r="AD3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="AF3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Calculated annual values</t>
         </is>
       </c>
       <c r="AG3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="AH3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleitender Fünfjahresdurchschnitt</t>
         </is>
       </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Moving five-year average</t>
         </is>
       </c>
       <c r="AJ3" s="4" t="inlineStr">
@@ -1575,32 +1634,32 @@
       </c>
       <c r="AS3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="AT3" s="7" t="inlineStr">
         <is>
-          <t>2020 teilweise vorläufige Daten.</t>
+          <t>2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AU3" s="7" t="inlineStr">
         <is>
-          <t>2020 partly provisional data.</t>
+          <t>2020 provisional data.</t>
         </is>
       </c>
       <c r="AV3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="AW3" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2018 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AX3" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2018 provisional data.</t>
         </is>
       </c>
       <c r="AY3" s="4" t="inlineStr">
@@ -1632,6 +1691,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE3" s="8">
+        <v>0</v>
       </c>
       <c r="BF3" s="4" t="inlineStr">
         <is>
@@ -1657,6 +1719,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN3" s="6">
+        <v>20</v>
+      </c>
       <c r="BO3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1708,6 +1773,16 @@
         </is>
       </c>
       <c r="CD3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1757,6 +1832,9 @@
           <t/>
         </is>
       </c>
+      <c r="K4" s="6">
+        <v>35</v>
+      </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1960,6 +2038,9 @@
           <t/>
         </is>
       </c>
+      <c r="BE4" s="8">
+        <v>1</v>
+      </c>
       <c r="BF4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1977,13 +2058,16 @@
         <v>1</v>
       </c>
       <c r="BL4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
+      <c r="BN4" s="6">
+        <v>5</v>
+      </c>
       <c r="BO4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2035,6 +2119,16 @@
         </is>
       </c>
       <c r="CD4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2219,12 +2313,12 @@
       </c>
       <c r="AQ5" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR5" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS5" s="4" t="inlineStr">
@@ -2234,12 +2328,12 @@
       </c>
       <c r="AT5" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU5" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV5" s="4" t="inlineStr">
@@ -2286,6 +2380,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE5" s="8">
+        <v>1</v>
       </c>
       <c r="BF5" s="4" t="inlineStr">
         <is>
@@ -2311,6 +2408,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN5" s="6">
+        <v>5</v>
+      </c>
       <c r="BO5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2362,6 +2462,16 @@
         </is>
       </c>
       <c r="CD5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2546,12 +2656,12 @@
       </c>
       <c r="AQ6" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Todesfälle pro 100 000 Einwohner/ -innen unter 70 Jahren (ohne unter 1-Jährige)&lt;br&gt;Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
         </is>
       </c>
       <c r="AR6" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Deaths per 100,000 inhabitants below the age of 70 (excluding those less than one year old)&lt;br&gt;Age-standardised figures based on the old European standard population.</t>
         </is>
       </c>
       <c r="AS6" s="4" t="inlineStr">
@@ -2561,12 +2671,12 @@
       </c>
       <c r="AT6" s="7" t="inlineStr">
         <is>
-          <t>Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU6" s="7" t="inlineStr">
         <is>
-          <t>Age-standardised figures based on the old European standard population.</t>
+          <t/>
         </is>
       </c>
       <c r="AV6" s="4" t="inlineStr">
@@ -2613,6 +2723,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE6" s="8">
+        <v>1</v>
       </c>
       <c r="BF6" s="4" t="inlineStr">
         <is>
@@ -2638,6 +2751,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN6" s="6">
+        <v>50</v>
+      </c>
       <c r="BO6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2689,6 +2805,16 @@
         </is>
       </c>
       <c r="CD6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2888,15 +3014,12 @@
       </c>
       <c r="AT7" s="7" t="inlineStr">
         <is>
-          <t>Die Daten für die Erwachsenen wurden in den Jahren 1995, 1999, 2003, 2005, 2009, 2013 und 2017 erhoben.   Die Daten für die Jugendlichen wurden seit dem Jahr 2003 in allen Jahren bis auf 2006, 2009, 2013 und 2017 erhoben.  'undefined' = Für dieses Jahr erfolgte keine Erhebung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU7" s="7" t="inlineStr">
         <is>
-          <t>The data for adults were collected in 1995, 1999, 2003, 2005, 2009, 2013 and 2017. 
-The data for the intervening years have been extrapolated. The data for adolescents have 
-been collected every year since 2003 except for 2006, 2009, 2013 and 2017. 
-Interpolated data have been used for those years.</t>
+          <t/>
         </is>
       </c>
       <c r="AV7" s="4" t="inlineStr">
@@ -2943,6 +3066,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE7" s="8">
+        <v>1</v>
       </c>
       <c r="BF7" s="4" t="inlineStr">
         <is>
@@ -2968,6 +3094,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN7" s="6">
+        <v>5</v>
+      </c>
       <c r="BO7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3019,6 +3148,16 @@
         </is>
       </c>
       <c r="CD7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3060,7 +3199,7 @@
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
@@ -3203,12 +3342,12 @@
       </c>
       <c r="AQ8" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;Altersstandardisierte Daten (Bevölkerungsstand: 31. Dezember 2015).</t>
         </is>
       </c>
       <c r="AR8" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation.&lt;br&gt;Age-standardized data (population status: December 31, 2015).</t>
         </is>
       </c>
       <c r="AS8" s="4" t="inlineStr">
@@ -3218,12 +3357,12 @@
       </c>
       <c r="AT8" s="7" t="inlineStr">
         <is>
-          <t>Altersstandardisierte Ergebnisse auf Basis der Bevölkerungsfortschreibung zum Stichtag 31.12.2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU8" s="7" t="inlineStr">
         <is>
-          <t>Age-standardised figures based on population estimate for 31 December 2015. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV8" s="4" t="inlineStr">
@@ -3270,6 +3409,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE8" s="8">
+        <v>1</v>
       </c>
       <c r="BF8" s="4" t="inlineStr">
         <is>
@@ -3295,6 +3437,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN8" s="6">
+        <v>2</v>
+      </c>
       <c r="BO8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3346,6 +3491,16 @@
         </is>
       </c>
       <c r="CD8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3530,12 +3685,12 @@
       </c>
       <c r="AQ9" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Altersstandardisierte Daten (neue Europastandardbevölkerung).</t>
         </is>
       </c>
       <c r="AR9" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Age-standardized data (new European standard population).</t>
         </is>
       </c>
       <c r="AS9" s="4" t="inlineStr">
@@ -3545,14 +3700,12 @@
       </c>
       <c r="AT9" s="7" t="inlineStr">
         <is>
-          <t>Datenerhebung in den Jahren 1999, 2003, 2005, 2009, 2013 und 2017.  Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU9" s="7" t="inlineStr">
         <is>
-          <t> The data were collected in 1999, 2003, 2005, 2009, 2013 and 2017. 
-The data for the intervening years have been extrapolated.
-Age-standardised figures based on the new European standard population. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV9" s="4" t="inlineStr">
@@ -3599,6 +3752,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE9" s="8">
+        <v>1</v>
       </c>
       <c r="BF9" s="4" t="inlineStr">
         <is>
@@ -3624,6 +3780,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN9" s="6">
+        <v>2</v>
+      </c>
       <c r="BO9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3675,6 +3834,16 @@
         </is>
       </c>
       <c r="CD9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3859,12 +4028,12 @@
       </c>
       <c r="AQ10" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5), gemittelter Index der Messzahlen.</t>
         </is>
       </c>
       <c r="AR10" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
         </is>
       </c>
       <c r="AS10" s="4" t="inlineStr">
@@ -3874,12 +4043,12 @@
       </c>
       <c r="AT10" s="7" t="inlineStr">
         <is>
-          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5), gemittelter Index der Messzahlen.</t>
+          <t/>
         </is>
       </c>
       <c r="AU10" s="7" t="inlineStr">
         <is>
-          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
+          <t/>
         </is>
       </c>
       <c r="AV10" s="4" t="inlineStr">
@@ -3926,6 +4095,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE10" s="8">
+        <v>1</v>
       </c>
       <c r="BF10" s="4" t="inlineStr">
         <is>
@@ -3951,6 +4123,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN10" s="6">
+        <v>10</v>
+      </c>
       <c r="BO10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4002,6 +4177,16 @@
         </is>
       </c>
       <c r="CD10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF10" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4068,7 +4253,7 @@
       </c>
       <c r="S11" s="4" t="inlineStr">
         <is>
-          <t>Feinstaubexposition (PM10) oberhalb des WHO-Richtwertes von mindestens 20 µg pro m3 Luft im Jahresdurchschnitt</t>
+          <t>Feinstaubexposition (PM10) oberhalb des WHO-Richtwerts von mindestens 20 µg pro m3 Luft im Jahresdurchschnitt</t>
         </is>
       </c>
       <c r="T11" s="4" t="inlineStr">
@@ -4128,12 +4313,12 @@
       </c>
       <c r="AE11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl von Personen mit erhöhter Feinstaubexposition am Wohnort</t>
         </is>
       </c>
       <c r="AF11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of persons with increased exposure to particulate matter at the place of residence</t>
         </is>
       </c>
       <c r="AG11" s="4" t="inlineStr">
@@ -4186,12 +4371,12 @@
       </c>
       <c r="AQ11" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;2020: Weniger als die Hälfte von 1 in der letzten besetzten Stelle, jedoch mehr als nichts.</t>
         </is>
       </c>
       <c r="AR11" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.&lt;br&gt;2020: Less than half of 1 in the last filled position, but more than nothing.</t>
         </is>
       </c>
       <c r="AS11" s="4" t="inlineStr">
@@ -4201,12 +4386,12 @@
       </c>
       <c r="AT11" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU11" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV11" s="4" t="inlineStr">
@@ -4253,6 +4438,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE11" s="8">
+        <v>1</v>
       </c>
       <c r="BF11" s="4" t="inlineStr">
         <is>
@@ -4278,6 +4466,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN11" s="6">
+        <v>5</v>
+      </c>
       <c r="BO11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4329,6 +4520,16 @@
         </is>
       </c>
       <c r="CD11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF11" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4370,7 +4571,7 @@
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
@@ -4513,12 +4714,12 @@
       </c>
       <c r="AQ12" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Alle Daten vorläufig.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR12" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>All data are provisional.&lt;br&gt;Data based on a special evaluation and are not publicly available.</t>
         </is>
       </c>
       <c r="AS12" s="4" t="inlineStr">
@@ -4528,12 +4729,12 @@
       </c>
       <c r="AT12" s="7" t="inlineStr">
         <is>
-          <t>Alle Daten vorläufig. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU12" s="7" t="inlineStr">
         <is>
-          <t>All data are provisional. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV12" s="4" t="inlineStr">
@@ -4580,6 +4781,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE12" s="8">
+        <v>1</v>
       </c>
       <c r="BF12" s="4" t="inlineStr">
         <is>
@@ -4605,6 +4809,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN12" s="6">
+        <v>100</v>
+      </c>
       <c r="BO12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4656,6 +4863,16 @@
         </is>
       </c>
       <c r="CD12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4722,12 +4939,12 @@
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger (18- bis 24-Jährige)</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="T13" s="4" t="inlineStr">
         <is>
-          <t>Early school  leavers (ages 18 to 24)</t>
+          <t>Early school  leavers</t>
         </is>
       </c>
       <c r="U13" s="4" t="inlineStr">
@@ -4782,12 +4999,12 @@
       </c>
       <c r="AE13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil an allen 18- bis 24-Jährigen</t>
         </is>
       </c>
       <c r="AF13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of all 18 to 24-year-olds</t>
         </is>
       </c>
       <c r="AG13" s="4" t="inlineStr">
@@ -4840,12 +5057,12 @@
       </c>
       <c r="AQ13" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="AR13" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;The results from 2020 onwards are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="AS13" s="4" t="inlineStr">
@@ -4855,12 +5072,12 @@
       </c>
       <c r="AT13" s="7" t="inlineStr">
         <is>
-          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU13" s="7" t="inlineStr">
         <is>
-          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV13" s="4" t="inlineStr">
@@ -4907,6 +5124,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE13" s="8">
+        <v>1</v>
       </c>
       <c r="BF13" s="4" t="inlineStr">
         <is>
@@ -4932,6 +5152,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN13" s="6">
+        <v>2</v>
+      </c>
       <c r="BO13" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4947,6 +5170,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT13" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU13" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4983,6 +5209,16 @@
         </is>
       </c>
       <c r="CD13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5009,7 +5245,7 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -5024,7 +5260,7 @@
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
@@ -5032,6 +5268,9 @@
           <t/>
         </is>
       </c>
+      <c r="K14" s="6">
+        <v>70</v>
+      </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5049,12 +5288,12 @@
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>30- bis 34-jährige akademisch Qualifizierte oder beruflich Höherqualifizierte</t>
+          <t>Akademisch Qualifizierte oder beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="T14" s="4" t="inlineStr">
         <is>
-          <t>30 to 34-year-olds with a tertiary or other post-secondary academic or vocational qualification</t>
+          <t>Tertiary or other post-secondary academically or vocational qualified persons</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -5109,12 +5348,12 @@
       </c>
       <c r="AE14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil an allen 30- bis 34-Jährigen</t>
         </is>
       </c>
       <c r="AF14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of all 30 to 34-year-olds</t>
         </is>
       </c>
       <c r="AG14" s="4" t="inlineStr">
@@ -5167,12 +5406,12 @@
       </c>
       <c r="AQ14" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR14" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS14" s="4" t="inlineStr">
@@ -5182,12 +5421,12 @@
       </c>
       <c r="AT14" s="7" t="inlineStr">
         <is>
-          <t>Anpassung des Zieljahres und –wertes von 42 % bis 2020 auf 55 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU14" s="7" t="inlineStr">
         <is>
-          <t>Adjustment target year and value from 42% by 2020 to 55% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV14" s="4" t="inlineStr">
@@ -5234,6 +5473,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE14" s="8">
+        <v>2</v>
       </c>
       <c r="BF14" s="4" t="inlineStr">
         <is>
@@ -5259,6 +5501,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN14" s="6">
+        <v>10</v>
+      </c>
       <c r="BO14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5274,6 +5519,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT14" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5310,6 +5558,16 @@
         </is>
       </c>
       <c r="CD14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5356,13 +5614,19 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="K15" s="6">
+        <v>100</v>
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="N15" s="6">
+        <v>100</v>
       </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
@@ -5431,32 +5695,32 @@
       </c>
       <c r="AD15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der 0- bis 2-Jährigen</t>
         </is>
       </c>
       <c r="AF15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="AG15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AH15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der 3- bis 5-Jährigen</t>
         </is>
       </c>
       <c r="AI15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="AJ15" s="4" t="inlineStr">
@@ -5494,12 +5758,12 @@
       </c>
       <c r="AQ15" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege.</t>
         </is>
       </c>
       <c r="AR15" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Care period of more than seven hours in child daycare centres, excluding home-based care.</t>
         </is>
       </c>
       <c r="AS15" s="4" t="inlineStr">
@@ -5509,12 +5773,12 @@
       </c>
       <c r="AT15" s="7" t="inlineStr">
         <is>
-          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU15" s="7" t="inlineStr">
         <is>
-          <t>Care period of more than seven hours in child daycare centres, excluding home-based care. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV15" s="4" t="inlineStr">
@@ -5561,6 +5825,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE15" s="8">
+        <v>1</v>
       </c>
       <c r="BF15" s="4" t="inlineStr">
         <is>
@@ -5579,13 +5846,16 @@
         <v>1</v>
       </c>
       <c r="BL15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
+      <c r="BN15" s="6">
+        <v>10</v>
+      </c>
       <c r="BO15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5637,6 +5907,16 @@
         </is>
       </c>
       <c r="CD15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5763,12 +6043,12 @@
       </c>
       <c r="AE16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>In Prozent der Verdienste der Männer</t>
         </is>
       </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of the men's earnings</t>
         </is>
       </c>
       <c r="AG16" s="4" t="inlineStr">
@@ -5821,12 +6101,12 @@
       </c>
       <c r="AQ16" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2015 bis 2019 korrigierte Daten.&lt;br&gt;2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR16" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2015 to 2019 revised data.&lt;br&gt;2020 and 2021 provisional data.</t>
         </is>
       </c>
       <c r="AS16" s="4" t="inlineStr">
@@ -5836,12 +6116,12 @@
       </c>
       <c r="AT16" s="7" t="inlineStr">
         <is>
-          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 vorläufig.</t>
+          <t/>
         </is>
       </c>
       <c r="AU16" s="7" t="inlineStr">
         <is>
-          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020.</t>
+          <t/>
         </is>
       </c>
       <c r="AV16" s="4" t="inlineStr">
@@ -5888,6 +6168,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE16" s="8">
+        <v>0</v>
       </c>
       <c r="BF16" s="4" t="inlineStr">
         <is>
@@ -5964,6 +6247,16 @@
         </is>
       </c>
       <c r="CD16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6013,6 +6306,9 @@
           <t/>
         </is>
       </c>
+      <c r="K17" s="6">
+        <v>60</v>
+      </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6148,12 +6444,12 @@
       </c>
       <c r="AQ17" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleichberechtigte Teilhabe: annähernd numerische Gleichheit.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes: Stand 30.06. des jeweiligen Jahres.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR17" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Equal participation: approximate numerical equality.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS17" s="4" t="inlineStr">
@@ -6163,19 +6459,12 @@
       </c>
       <c r="AT17" s="7" t="inlineStr">
         <is>
-          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.
-Frauen in Aufsichtsräten: 2015 bis 2021 (Stand: Januar des jeweiligen Jahres).
-Frauen im öffentlichen Dienst des Bundes (Stand: 30.06. des jeweiligen Jahres).
-2021 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU17" s="7" t="inlineStr">
         <is>
-          <t>In this context, equal representation means that approximately numerical equality is targeted. 
-Women on supervisory boards 2015 to 2021 (figures as at January each year).
-Women in management positions in the federal civil service (figures as at 30 June each year).
-2021 provisional data.
-</t>
+          <t/>
         </is>
       </c>
       <c r="AV17" s="4" t="inlineStr">
@@ -6222,6 +6511,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE17" s="8">
+        <v>1</v>
       </c>
       <c r="BF17" s="4" t="inlineStr">
         <is>
@@ -6247,6 +6539,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN17" s="6">
+        <v>5</v>
+      </c>
       <c r="BO17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6298,6 +6593,16 @@
         </is>
       </c>
       <c r="CD17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF17" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6482,12 +6787,12 @@
       </c>
       <c r="AQ18" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>1. Juli 2015: Einführung von ElterngeldPlus und Partnerschaftsbonus.&lt;br&gt;Für die Auswertung aller abgeschlossenen Leistungsbezüge zu einem bestimmten Geburtszeitraum muss die maximal mögliche Bezugsdauer berücksichtigt werden, sodass Daten nur mit einem größeren zeitlichen Verzug dargestellt werden können.</t>
         </is>
       </c>
       <c r="AR18" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>July 1, 2015: Introduction of ElterngeldPlus and partnership bonus.&lt;br&gt;For the evaluation of all completed benefit payments for a specific birth period, the maxi-mum possible reference period must be taken into account, so that data can only be present-ed with a larger time lag.</t>
         </is>
       </c>
       <c r="AS18" s="4" t="inlineStr">
@@ -6497,14 +6802,12 @@
       </c>
       <c r="AT18" s="7" t="inlineStr">
         <is>
-          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.
-Die Jahreszahlen geben das Geburtsjahr des Kindes an.</t>
+          <t/>
         </is>
       </c>
       <c r="AU18" s="7" t="inlineStr">
         <is>
-          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.
-The years indicate the year of birth of the child.</t>
+          <t/>
         </is>
       </c>
       <c r="AV18" s="4" t="inlineStr">
@@ -6551,6 +6854,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE18" s="8">
+        <v>1</v>
       </c>
       <c r="BF18" s="4" t="inlineStr">
         <is>
@@ -6576,6 +6882,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN18" s="6">
+        <v>10</v>
+      </c>
       <c r="BO18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6591,6 +6900,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT18" s="6">
+        <v>2016</v>
+      </c>
       <c r="BU18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6629,6 +6941,16 @@
       <c r="CD18" s="4" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="CE18" s="4" t="inlineStr">
+        <is>
+          <t>Geburtsjahr des Kindes</t>
+        </is>
+      </c>
+      <c r="CF18" s="4" t="inlineStr">
+        <is>
+          <t>Child`s year of birth</t>
         </is>
       </c>
     </row>
@@ -6811,12 +7133,12 @@
       </c>
       <c r="AQ19" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR19" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.&lt;br&gt;The target represents a one-third increase since 2015.</t>
         </is>
       </c>
       <c r="AS19" s="4" t="inlineStr">
@@ -6826,12 +7148,12 @@
       </c>
       <c r="AT19" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU19" s="7" t="inlineStr">
         <is>
-          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
@@ -6878,6 +7200,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE19" s="8">
+        <v>0</v>
       </c>
       <c r="BF19" s="4" t="inlineStr">
         <is>
@@ -6954,6 +7279,16 @@
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF19" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7003,6 +7338,9 @@
           <t/>
         </is>
       </c>
+      <c r="K20" s="6">
+        <v>100</v>
+      </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7080,12 +7418,12 @@
       </c>
       <c r="AE20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Messstellen, an denen der Orientierungswert des guten ökologischen Zustands für Gesamt-Phosohor eingehalten wird</t>
         </is>
       </c>
       <c r="AF20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of monitoring points at which the benchmark values for good ecological status for total phosphorous in flowing waters is not exceeded</t>
         </is>
       </c>
       <c r="AG20" s="4" t="inlineStr">
@@ -7206,6 +7544,9 @@
           <t/>
         </is>
       </c>
+      <c r="BE20" s="8">
+        <v>1</v>
+      </c>
       <c r="BF20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7230,6 +7571,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN20" s="6">
+        <v>10</v>
+      </c>
       <c r="BO20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7281,6 +7625,16 @@
         </is>
       </c>
       <c r="CD20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF20" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7330,6 +7684,9 @@
           <t/>
         </is>
       </c>
+      <c r="K21" s="6">
+        <v>100</v>
+      </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7407,12 +7764,12 @@
       </c>
       <c r="AE21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Messstellen, an denen der Schwellenwert eingehalten wird</t>
         </is>
       </c>
       <c r="AF21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of monitoring points at which the threshold is not exceeded</t>
         </is>
       </c>
       <c r="AG21" s="4" t="inlineStr">
@@ -7465,12 +7822,12 @@
       </c>
       <c r="AQ21" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Basis EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.&lt;br&gt; Berlin, Bremen und Hamburg (Stadtstaaten): keine Daten vorhanden. Grund: zu wenig Messstellen.</t>
         </is>
       </c>
       <c r="AR21" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Basis EEA monitoring network: the threshold is an annual average of 50 mg nitrate per litre of groundwater.&lt;br&gt;Berlin, Bremen and Hamburg (city states): no data available. Reason: too few monitoring points.</t>
         </is>
       </c>
       <c r="AS21" s="4" t="inlineStr">
@@ -7480,12 +7837,12 @@
       </c>
       <c r="AT21" s="7" t="inlineStr">
         <is>
-          <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.</t>
+          <t/>
         </is>
       </c>
       <c r="AU21" s="7" t="inlineStr">
         <is>
-          <t>Basis: EEA monitoring network; the threshold is an annual average of 50 mg nitrate per litre of groundwater.</t>
+          <t/>
         </is>
       </c>
       <c r="AV21" s="4" t="inlineStr">
@@ -7532,6 +7889,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE21" s="8">
+        <v>1</v>
       </c>
       <c r="BF21" s="4" t="inlineStr">
         <is>
@@ -7557,6 +7917,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN21" s="6">
+        <v>10</v>
+      </c>
       <c r="BO21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7608,6 +7971,16 @@
         </is>
       </c>
       <c r="CD21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF21" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7734,12 +8107,12 @@
       </c>
       <c r="AE22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl erreichter Menschen</t>
         </is>
       </c>
       <c r="AF22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of people reached</t>
         </is>
       </c>
       <c r="AG22" s="4" t="inlineStr">
@@ -7792,12 +8165,12 @@
       </c>
       <c r="AQ22" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;Ab 2019 wird die Zeitreihe für die Bereiche Trinkwasserversorgung und Sanitärversorgung getrennt ausgewiesen.</t>
         </is>
       </c>
       <c r="AR22" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.&lt;br&gt;Beginning in 2019, the time series for drinking water supply and sanitation will be reported separately.</t>
         </is>
       </c>
       <c r="AS22" s="4" t="inlineStr">
@@ -7807,12 +8180,12 @@
       </c>
       <c r="AT22" s="7" t="inlineStr">
         <is>
-          <t>2019: Umstellung der Methodik. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU22" s="7" t="inlineStr">
         <is>
-          <t>2019: Change of methodology. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV22" s="4" t="inlineStr">
@@ -7859,6 +8232,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE22" s="8">
+        <v>1</v>
       </c>
       <c r="BF22" s="4" t="inlineStr">
         <is>
@@ -7884,6 +8260,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN22" s="6">
+        <v>5</v>
+      </c>
       <c r="BO22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7899,6 +8278,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT22" s="6">
+        <v>2019</v>
+      </c>
       <c r="BU22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7935,6 +8317,16 @@
         </is>
       </c>
       <c r="CD22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF22" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7981,22 +8373,25 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="J23" s="6">
         <v>0</v>
       </c>
       <c r="K23" s="6">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
-        </is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
@@ -8005,32 +8400,32 @@
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität und Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="T23" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity and primary energy consumption</t>
+          <t>Final Energy Productivity</t>
         </is>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Primary Energy Consumption</t>
         </is>
       </c>
       <c r="X23" s="4" t="inlineStr">
@@ -8138,32 +8533,32 @@
       </c>
       <c r="AS23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AT23" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
+          <t>Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).&lt;br&gt;2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AU23" s="7" t="inlineStr">
         <is>
-          <t>2020 preliminary data.&lt;br&gt;The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).</t>
+          <t>The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).&lt;br&gt;2020 preliminary data.</t>
         </is>
       </c>
       <c r="AV23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AW23" s="7" t="inlineStr">
         <is>
-          <t>2020 und 2021 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
+          <t>Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).&lt;br&gt;2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AX23" s="7" t="inlineStr">
         <is>
-          <t>2020 und 2021 preliminary data.&lt;br&gt;The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).</t>
+          <t>The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).&lt;br&gt;2020 und 2021 preliminary data.</t>
         </is>
       </c>
       <c r="AY23" s="4" t="inlineStr">
@@ -8220,13 +8615,19 @@
       </c>
       <c r="BM23" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="BN23" s="6">
+        <v>40</v>
       </c>
       <c r="BO23" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="BP23" s="6">
+        <v>20</v>
       </c>
       <c r="BQ23" s="4" t="inlineStr">
         <is>
@@ -8274,6 +8675,16 @@
         </is>
       </c>
       <c r="CD23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF23" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8346,12 +8757,12 @@
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien (Erzeugung) am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="T24" s="4" t="inlineStr">
         <is>
-          <t>Generation of renewable energies as a share of gross final energy consumption</t>
+          <t>Share of renewable energies (generation) in gross final energy consumption</t>
         </is>
       </c>
       <c r="U24" s="4" t="inlineStr">
@@ -8464,12 +8875,12 @@
       </c>
       <c r="AQ24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 teilweise vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 partly provisional data.</t>
         </is>
       </c>
       <c r="AS24" s="4" t="inlineStr">
@@ -8479,12 +8890,12 @@
       </c>
       <c r="AT24" s="7" t="inlineStr">
         <is>
-          <t>2021 teilweise vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU24" s="7" t="inlineStr">
         <is>
-          <t>2021 partly provisional data.</t>
+          <t/>
         </is>
       </c>
       <c r="AV24" s="4" t="inlineStr">
@@ -8531,6 +8942,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE24" s="8">
+        <v>1</v>
       </c>
       <c r="BF24" s="4" t="inlineStr">
         <is>
@@ -8556,6 +8970,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN24" s="6">
+        <v>10</v>
+      </c>
       <c r="BO24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8607,6 +9024,16 @@
         </is>
       </c>
       <c r="CD24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF24" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8624,7 +9051,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
@@ -8659,6 +9086,9 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
+      <c r="K25" s="6">
+        <v>100</v>
+      </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8676,12 +9106,12 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="T25" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable sources</t>
+          <t>Electricity from renewable sources as a share of gross electricity consumption</t>
         </is>
       </c>
       <c r="U25" s="4" t="inlineStr">
@@ -8794,12 +9224,12 @@
       </c>
       <c r="AQ25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 teilweise vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 partially provisional data.</t>
         </is>
       </c>
       <c r="AS25" s="4" t="inlineStr">
@@ -8809,14 +9239,12 @@
       </c>
       <c r="AT25" s="7" t="inlineStr">
         <is>
-          <t>2019 und 2020 vorläufige Daten. 
-Ziel für das Jahr 2050: Gesamter erzeugter und verbrauchter Strom lt. EEG treibhausgasneutral.</t>
+          <t/>
         </is>
       </c>
       <c r="AU25" s="7" t="inlineStr">
         <is>
-          <t>Provisional data for 2019 and 2020. 
-Target for 2050: zero net greenhouse-gas emissions from all electricity generation and consumption.</t>
+          <t/>
         </is>
       </c>
       <c r="AV25" s="4" t="inlineStr">
@@ -8863,6 +9291,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE25" s="8">
+        <v>1</v>
       </c>
       <c r="BF25" s="4" t="inlineStr">
         <is>
@@ -8878,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="BK25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25" s="5" t="b">
         <v>0</v>
@@ -8888,6 +9319,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN25" s="6">
+        <v>10</v>
+      </c>
       <c r="BO25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8939,6 +9373,16 @@
         </is>
       </c>
       <c r="CD25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF25" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8988,6 +9432,9 @@
           <t/>
         </is>
       </c>
+      <c r="K26" s="6">
+        <v>200</v>
+      </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9123,12 +9570,13 @@
       </c>
       <c r="AQ26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.&lt;br&gt;Wert von Konsum, Investitionen und Exporten: 2001 bis 2007 interpolierte Daten.</t>
         </is>
       </c>
       <c r="AR26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
+annual increase amounted to about 1.6%.&lt;br&gt;Raw material input for consumption, investment and exports: 2001 to 2007 interpolated data.</t>
         </is>
       </c>
       <c r="AS26" s="4" t="inlineStr">
@@ -9138,15 +9586,12 @@
       </c>
       <c r="AT26" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich 1,6 % Steigerung pro Jahr aufwies.
-2001 bis 2007 interpolierte Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU26" s="7" t="inlineStr">
         <is>
-          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
-annual increase amounted to 1.6%.
-2001 to 2007 interpolated data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV26" s="4" t="inlineStr">
@@ -9269,6 +9714,16 @@
         </is>
       </c>
       <c r="CD26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF26" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9318,6 +9773,12 @@
           <t/>
         </is>
       </c>
+      <c r="J27" s="6">
+        <v>-5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>5</v>
+      </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9395,12 +9856,12 @@
       </c>
       <c r="AE27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierungssaldo und struktureller Finanzierungssaldo: Anteil am BIP (in jeweiligen Preisen); Bruttoinlandsprodukt (preisbereinigt): Veränderung gegenüber dem Vorjahr</t>
         </is>
       </c>
       <c r="AF27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Financial balance and structural financial balance: Share of GDP (current prices); gross domestic product (price-adjusted): Year-on-year change</t>
         </is>
       </c>
       <c r="AG27" s="4" t="inlineStr">
@@ -9453,12 +9914,12 @@
       </c>
       <c r="AQ27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="AS27" s="4" t="inlineStr">
@@ -9468,12 +9929,12 @@
       </c>
       <c r="AT27" s="7" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, 2015 = 100. 2019, 2020 und 2021 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU27" s="7" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, 2015 = 100. Provisional data for 2019, 2020 and 2021.</t>
+          <t/>
         </is>
       </c>
       <c r="AV27" s="4" t="inlineStr">
@@ -9520,6 +9981,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE27" s="8">
+        <v>1</v>
       </c>
       <c r="BF27" s="4" t="inlineStr">
         <is>
@@ -9545,6 +10009,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN27" s="6">
+        <v>1</v>
+      </c>
       <c r="BO27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9596,6 +10063,16 @@
         </is>
       </c>
       <c r="CD27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9613,37 +10090,43 @@
         </is>
       </c>
       <c r="C28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K28" s="6">
+        <v>100</v>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
@@ -9722,12 +10205,12 @@
       </c>
       <c r="AE28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verhältnis zum Bruttoinlandsprodukt in jeweiligen Preisen</t>
         </is>
       </c>
       <c r="AF28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ratio to gross domestic product at current prices</t>
         </is>
       </c>
       <c r="AG28" s="4" t="inlineStr">
@@ -9780,12 +10263,12 @@
       </c>
       <c r="AQ28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Provisional data for 2020 and 2021.</t>
         </is>
       </c>
       <c r="AS28" s="4" t="inlineStr">
@@ -9795,12 +10278,12 @@
       </c>
       <c r="AT28" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU28" s="7" t="inlineStr">
         <is>
-          <t>2020 preliminary data.</t>
+          <t/>
         </is>
       </c>
       <c r="AV28" s="4" t="inlineStr">
@@ -9847,6 +10330,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE28" s="8">
+        <v>1</v>
       </c>
       <c r="BF28" s="4" t="inlineStr">
         <is>
@@ -9872,6 +10358,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN28" s="6">
+        <v>10</v>
+      </c>
       <c r="BO28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9923,6 +10412,16 @@
         </is>
       </c>
       <c r="CD28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF28" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10049,12 +10548,12 @@
       </c>
       <c r="AE29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil am Bruttoinlandsprodukt in jeweiligen Preisen</t>
         </is>
       </c>
       <c r="AF29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of gross domestic product at current prices</t>
         </is>
       </c>
       <c r="AG29" s="4" t="inlineStr">
@@ -10107,12 +10606,12 @@
       </c>
       <c r="AQ29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="AS29" s="4" t="inlineStr">
@@ -10122,12 +10621,12 @@
       </c>
       <c r="AT29" s="7" t="inlineStr">
         <is>
-          <t>Ab 2019 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU29" s="7" t="inlineStr">
         <is>
-          <t>Provisional data from 2019 onwards.</t>
+          <t/>
         </is>
       </c>
       <c r="AV29" s="4" t="inlineStr">
@@ -10174,6 +10673,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE29" s="8">
+        <v>1</v>
       </c>
       <c r="BF29" s="4" t="inlineStr">
         <is>
@@ -10199,6 +10701,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN29" s="6">
+        <v>5</v>
+      </c>
       <c r="BO29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10250,6 +10755,16 @@
         </is>
       </c>
       <c r="CD29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF29" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10376,12 +10891,12 @@
       </c>
       <c r="AE30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Preisbereinigt</t>
         </is>
       </c>
       <c r="AF30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Price-adjusted</t>
         </is>
       </c>
       <c r="AG30" s="4" t="inlineStr">
@@ -10434,12 +10949,12 @@
       </c>
       <c r="AQ30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="AS30" s="4" t="inlineStr">
@@ -10449,12 +10964,12 @@
       </c>
       <c r="AT30" s="7" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, Referenzjahr 2015. 2019 und 2020 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU30" s="7" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, reference year 2015. Provisional data for 2019 and 2020.</t>
+          <t/>
         </is>
       </c>
       <c r="AV30" s="4" t="inlineStr">
@@ -10501,6 +11016,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE30" s="8">
+        <v>1</v>
       </c>
       <c r="BF30" s="4" t="inlineStr">
         <is>
@@ -10526,6 +11044,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN30" s="6">
+        <v>5</v>
+      </c>
       <c r="BO30" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10577,6 +11098,16 @@
         </is>
       </c>
       <c r="CD30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF30" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10767,29 +11298,28 @@
       </c>
       <c r="AQ31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="AS31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AT31" s="7" t="inlineStr">
         <is>
-          <t>Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. Alterklasse 60 - 64 Jahre: Aussagewert eingeschränkt für Bremen - Männer 2010, Frauen 2010 - 2012 und 2015 sowie Saarland - Frauen 2010.
-Bundesländer,  Alterklasse 60 - 64 Jahre: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+          <t>Bremen: Männer 2010, Frauen 2010 bis 2012 sowie 2015 eingeschränkter Aussagewert.&lt;br&gt;Saarland: Frauen 2010 eingeschränkter Aussagewert.
+&lt;br&gt;Bundesländer: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AU31" s="7" t="inlineStr">
         <is>
-          <t>The results from 2020 onwards are only comparable with previous years to a limited extent. Age group 60 - 64 years: Limited significance for Bremen - men 2010, women 2010 - 2012 and 2015 as well as Saarland - women 2010.
- Länder, Age group 60 - 64 years: The data is based on a special evaluation and is not publicly available.</t>
+          <t>Bremen: Men 2010, women 2010 to 2012 and 2015 limited significance.&lt;br&gt;Saarland: Women 2010 limited significance.&lt;br&gt;Länder: The data is based on a special evaluation and is not publicly available</t>
         </is>
       </c>
       <c r="AV31" s="4" t="inlineStr">
@@ -10836,6 +11366,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE31" s="8">
+        <v>1</v>
       </c>
       <c r="BF31" s="4" t="inlineStr">
         <is>
@@ -10854,13 +11387,16 @@
         <v>1</v>
       </c>
       <c r="BL31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
+      <c r="BN31" s="6">
+        <v>10</v>
+      </c>
       <c r="BO31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10876,6 +11412,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT31" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10912,6 +11451,16 @@
         </is>
       </c>
       <c r="CD31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10978,12 +11527,12 @@
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t>Bündnis für nachhaltige Textilien</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t>Partnership for Sustainable Textiles</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -11096,12 +11645,12 @@
       </c>
       <c r="AQ32" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Stand: 31.12. des jeweiligen Jahres.</t>
         </is>
       </c>
       <c r="AR32" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>As of Dec. 31 of the respective year.</t>
         </is>
       </c>
       <c r="AS32" s="4" t="inlineStr">
@@ -11111,12 +11660,12 @@
       </c>
       <c r="AT32" s="7" t="inlineStr">
         <is>
-          <t>Q. = Quartal. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU32" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV32" s="4" t="inlineStr">
@@ -11239,6 +11788,16 @@
         </is>
       </c>
       <c r="CD32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF32" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11256,7 +11815,7 @@
         </is>
       </c>
       <c r="C33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
@@ -11292,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
@@ -11371,12 +11930,12 @@
       </c>
       <c r="AE33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil am Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="AF33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of gross domestic product</t>
         </is>
       </c>
       <c r="AG33" s="4" t="inlineStr">
@@ -11429,12 +11988,12 @@
       </c>
       <c r="AQ33" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Sektor Wirtschaft: Erhebung nach Bundesländern nur in ungeraden Jahren, in geraden Jahren erfolgt die Aufteilung auf die Bundesländer prozentual nach dem jeweiligen Vorjahr.&lt;br&gt;Bis 2010 einschließlich externer Ausgaben für Forschung und Entwicklung.&lt;br&gt;Ab 2016 geänderte Berechnungsmethodik.</t>
         </is>
       </c>
       <c r="AR33" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Economic sector: Survey by federal state only in odd-numbered years; in even-numbered years, the breakdown by federal state is based on the percentage of the respective previous year.&lt;br&gt;Until 2010, including external expenditures for research and development.&lt;br&gt;Calculation methodology changed as of 2016.</t>
         </is>
       </c>
       <c r="AS33" s="4" t="inlineStr">
@@ -11444,12 +12003,12 @@
       </c>
       <c r="AT33" s="7" t="inlineStr">
         <is>
-          <t>2019 vorläufige Daten; Sektor Wirtschaft: Erhebung nach Bundesländern nur in ungeraden Jahren, in geraden Jahren erfolgt die Aufteilung auf die Bundesländer prozentual nach dem jeweiligen Vorjahr.</t>
+          <t/>
         </is>
       </c>
       <c r="AU33" s="7" t="inlineStr">
         <is>
-          <t>2019 provisional data; business enterprise sector: survey by state only in odd-numbered years, in even-numbered years the breakdown by state is based on the percentage of the respective previous year.</t>
+          <t/>
         </is>
       </c>
       <c r="AV33" s="4" t="inlineStr">
@@ -11496,6 +12055,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE33" s="8">
+        <v>1</v>
       </c>
       <c r="BF33" s="4" t="inlineStr">
         <is>
@@ -11521,6 +12083,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN33" s="6">
+        <v>0.5</v>
+      </c>
       <c r="BO33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11572,6 +12137,16 @@
         </is>
       </c>
       <c r="CD33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF33" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11621,6 +12196,9 @@
           <t/>
         </is>
       </c>
+      <c r="K34" s="6">
+        <v>100</v>
+      </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11638,12 +12216,12 @@
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit in Deutschland</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability in Germany</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="U34" s="4" t="inlineStr">
@@ -11698,12 +12276,12 @@
       </c>
       <c r="AE34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil aller Haushalte</t>
         </is>
       </c>
       <c r="AF34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of all households</t>
         </is>
       </c>
       <c r="AG34" s="4" t="inlineStr">
@@ -11771,12 +12349,12 @@
       </c>
       <c r="AT34" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU34" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV34" s="4" t="inlineStr">
@@ -11823,6 +12401,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE34" s="8">
+        <v>1</v>
       </c>
       <c r="BF34" s="4" t="inlineStr">
         <is>
@@ -11899,6 +12480,16 @@
         </is>
       </c>
       <c r="CD34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF34" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11945,62 +12536,80 @@
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_GERMAN</t>
+        </is>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>100</v>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_FOREIGN</t>
+        </is>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>100</v>
       </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>20</v>
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und -absolventen</t>
+          <t>Deutsche Schulabsolvierende</t>
         </is>
       </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
+          <t>German school graduates</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_FOREIGN</t>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t>Ausländische Schulabsolvierende</t>
+        </is>
+      </c>
+      <c r="W35" s="4" t="inlineStr">
+        <is>
           <t>Foreign school graduates</t>
         </is>
       </c>
-      <c r="U35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="Y35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Differenz der Anteile an Schulabsolvierenden</t>
         </is>
       </c>
       <c r="Z35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Difference in share of school-graduates</t>
         </is>
       </c>
       <c r="AA35" s="4" t="inlineStr">
@@ -12020,47 +12629,47 @@
       </c>
       <c r="AD35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="AE35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>als Anteil an allen deutschen Schulabsolvierenden und -abgehenden</t>
         </is>
       </c>
       <c r="AF35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>as share of all German school-leavers</t>
         </is>
       </c>
       <c r="AG35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="AH35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>als Anteil an allen ausländischen Schulabsolvierenden und -abgehenden</t>
         </is>
       </c>
       <c r="AI35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>as share of all foreign school-leavers</t>
         </is>
       </c>
       <c r="AJ35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="AK35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>zwischen deutschen und ausländischen Schulabgehenden und -absolvierenden</t>
         </is>
       </c>
       <c r="AL35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>between german and foreign school leavers</t>
         </is>
       </c>
       <c r="AM35" s="4" t="inlineStr">
@@ -12083,12 +12692,12 @@
       </c>
       <c r="AQ35" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolvierenden/Abgehenden teilweise geschätzt.</t>
         </is>
       </c>
       <c r="AR35" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated.</t>
         </is>
       </c>
       <c r="AS35" s="4" t="inlineStr">
@@ -12098,12 +12707,12 @@
       </c>
       <c r="AT35" s="7" t="inlineStr">
         <is>
-          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt. Externe Absolventen werden nicht erhoben. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU35" s="7" t="inlineStr">
         <is>
-          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated. External graduates are not surveyed. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV35" s="4" t="inlineStr">
@@ -12150,6 +12759,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE35" s="8">
+        <v>1</v>
       </c>
       <c r="BF35" s="4" t="inlineStr">
         <is>
@@ -12168,22 +12780,31 @@
         <v>1</v>
       </c>
       <c r="BL35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_GERMAN</t>
+        </is>
+      </c>
+      <c r="BN35" s="6">
+        <v>10</v>
       </c>
       <c r="BO35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_FOREIGN</t>
+        </is>
+      </c>
+      <c r="BP35" s="6">
+        <v>10</v>
       </c>
       <c r="BQ35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="BR35" s="6">
+        <v>2</v>
       </c>
       <c r="BS35" s="4" t="inlineStr">
         <is>
@@ -12226,6 +12847,16 @@
         </is>
       </c>
       <c r="CD35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF35" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12292,12 +12923,12 @@
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>Verfügbares Äquivalenzeinkommen</t>
+          <t>Gini-Koeffizient der Einkommens- und Vermögensverteilung</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
-          <t>Equivalised disposable income</t>
+          <t>Gini coefficient of income and wealth</t>
         </is>
       </c>
       <c r="U36" s="4" t="inlineStr">
@@ -12410,12 +13041,12 @@
       </c>
       <c r="AQ36" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Renten von den Sozialleistungen ausgeschlossen.&lt;br&gt;Für EU: 2019 von Eurostat geschätzte Daten, ab 2020: EU-27 (ohne Vereinigtes Königreich).&lt;br&gt;Die bislang separat durchgeführte Erhebung „Leben in Europa“ (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="AR36" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Pensions not included in social benefits.&lt;br&gt;For EU: 2019 data estimated by Eurostat, from 2020: EU-27 (without UK).&lt;br&gt;The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.</t>
         </is>
       </c>
       <c r="AS36" s="4" t="inlineStr">
@@ -12425,14 +13056,12 @@
       </c>
       <c r="AT36" s="7" t="inlineStr">
         <is>
-          <t>Renten nicht in den Sozialleistungen eingeschlossen.  
-Gini-Koeffizient des verfügbaren Äquivalenzeinkommens: bis 2009 EU-27, ab 2010 EU-28.</t>
+          <t/>
         </is>
       </c>
       <c r="AU36" s="7" t="inlineStr">
         <is>
-          <t>Pensions not included in social benefits.  
-Gini coefficient of equivalised disposable income: EU 27 until 2009, EU 28 from 2010.</t>
+          <t/>
         </is>
       </c>
       <c r="AV36" s="4" t="inlineStr">
@@ -12479,6 +13108,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE36" s="8">
+        <v>3</v>
       </c>
       <c r="BF36" s="4" t="inlineStr">
         <is>
@@ -12504,6 +13136,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN36" s="6">
+        <v>0.05</v>
+      </c>
       <c r="BO36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12519,6 +13154,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT36" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12555,6 +13193,16 @@
         </is>
       </c>
       <c r="CD36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF36" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12596,7 +13244,7 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
@@ -12676,32 +13324,32 @@
       </c>
       <c r="AD37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="AE37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="AF37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Calculated annual values</t>
         </is>
       </c>
       <c r="AG37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="AH37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="AI37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Moving four-year average</t>
         </is>
       </c>
       <c r="AJ37" s="4" t="inlineStr">
@@ -12739,12 +13387,12 @@
       </c>
       <c r="AQ37" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="AR37" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="AS37" s="4" t="inlineStr">
@@ -12754,12 +13402,12 @@
       </c>
       <c r="AT37" s="7" t="inlineStr">
         <is>
-          <t>Die Datenbasis für Auswertungen der Siedlungs- und Verkehrsfläche ist die amtliche Flächenerhebung. Ab dem Berichtsjahr 2016 basiert diese auf  dem Amtlichen Liegenschaftskataster-Informationssystem (ALKIS). Dadurch ist der Vergleich zu den Vorjahren beeinträchtigt und die Berechnung von Veränderungen erschwert. Die nach der Umstellung ermittelte Siedlungs- und Verkehrsfläche enthält weitgehend dieselben Nutzungsarten wie früher.</t>
+          <t/>
         </is>
       </c>
       <c r="AU37" s="7" t="inlineStr">
         <is>
-          <t>The data for assessing settlement and transport land is taken from the official survey of land. Since 2016, the survey has been based on ALKIS, the official land register information system. As a result, the possibilities of comparison with previous years  are limited and it is more difficult to calculate the extent of changes. The settlement and transport land covered after the switch largely encompasses the same categories of land use as before.</t>
+          <t/>
         </is>
       </c>
       <c r="AV37" s="4" t="inlineStr">
@@ -12806,6 +13454,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE37" s="8">
+        <v>0</v>
       </c>
       <c r="BF37" s="4" t="inlineStr">
         <is>
@@ -12824,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="BL37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM37" s="4" t="inlineStr">
         <is>
@@ -12843,8 +13494,11 @@
       </c>
       <c r="BS37" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_ANNUALVAL</t>
+        </is>
+      </c>
+      <c r="BT37" s="6">
+        <v>2016</v>
       </c>
       <c r="BU37" s="4" t="inlineStr">
         <is>
@@ -12858,8 +13512,11 @@
       </c>
       <c r="BW37" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="BX37" s="9">
+        <v>2016</v>
       </c>
       <c r="BY37" s="4" t="inlineStr">
         <is>
@@ -12882,6 +13539,16 @@
         </is>
       </c>
       <c r="CD37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF37" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13008,12 +13675,12 @@
       </c>
       <c r="AE38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="AF38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Four-year moving average</t>
         </is>
       </c>
       <c r="AG38" s="4" t="inlineStr">
@@ -13066,12 +13733,12 @@
       </c>
       <c r="AQ38" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="AR38" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="AS38" s="4" t="inlineStr">
@@ -13081,13 +13748,12 @@
       </c>
       <c r="AT38" s="7" t="inlineStr">
         <is>
-          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU38" s="7" t="inlineStr">
         <is>
-          <t>A change in the data underpinning this indicator took effect on 31 December 2016, with a new land-use classification system being used from then on. This meant that no change could be recorded between 2015 and 2016. Comparisons over time are not possible without caveats. Data based on a special evaluation.
-</t>
+          <t/>
         </is>
       </c>
       <c r="AV38" s="4" t="inlineStr">
@@ -13134,6 +13800,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE38" s="8">
+        <v>1</v>
       </c>
       <c r="BF38" s="4" t="inlineStr">
         <is>
@@ -13159,6 +13828,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN38" s="6">
+        <v>1</v>
+      </c>
       <c r="BO38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13174,6 +13846,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT38" s="6">
+        <v>2016</v>
+      </c>
       <c r="BU38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13210,6 +13885,16 @@
         </is>
       </c>
       <c r="CD38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF38" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13256,14 +13941,14 @@
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="J39" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K39" s="6">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
@@ -13415,12 +14100,12 @@
       </c>
       <c r="AT39" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU39" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV39" s="4" t="inlineStr">
@@ -13467,6 +14152,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE39" s="8">
+        <v>1</v>
       </c>
       <c r="BF39" s="4" t="inlineStr">
         <is>
@@ -13489,13 +14177,19 @@
       </c>
       <c r="BM39" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>E_IDX2000</t>
+        </is>
+      </c>
+      <c r="BN39" s="6">
+        <v>5</v>
       </c>
       <c r="BO39" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>E_EWPKM2</t>
+        </is>
+      </c>
+      <c r="BP39" s="6">
+        <v>500</v>
       </c>
       <c r="BQ39" s="4" t="inlineStr">
         <is>
@@ -13543,6 +14237,16 @@
         </is>
       </c>
       <c r="CD39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13748,12 +14452,12 @@
       </c>
       <c r="AT40" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU40" s="7" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV40" s="4" t="inlineStr">
@@ -13800,6 +14504,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE40" s="8">
+        <v>1</v>
       </c>
       <c r="BF40" s="4" t="inlineStr">
         <is>
@@ -13876,6 +14583,16 @@
         </is>
       </c>
       <c r="CD40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF40" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14081,12 +14798,12 @@
       </c>
       <c r="AT41" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU41" s="7" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV41" s="4" t="inlineStr">
@@ -14133,6 +14850,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE41" s="8">
+        <v>1</v>
       </c>
       <c r="BF41" s="4" t="inlineStr">
         <is>
@@ -14209,6 +14929,16 @@
         </is>
       </c>
       <c r="CD41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF41" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14393,12 +15123,12 @@
       </c>
       <c r="AQ42" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR42" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS42" s="4" t="inlineStr">
@@ -14408,12 +15138,12 @@
       </c>
       <c r="AT42" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU42" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV42" s="4" t="inlineStr">
@@ -14460,6 +15190,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE42" s="8">
+        <v>1</v>
       </c>
       <c r="BF42" s="4" t="inlineStr">
         <is>
@@ -14485,6 +15218,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN42" s="6">
+        <v>5</v>
+      </c>
       <c r="BO42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14536,6 +15272,16 @@
         </is>
       </c>
       <c r="CD42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF42" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14720,12 +15466,12 @@
       </c>
       <c r="AQ43" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="AR43" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>The 'Life in Europe' survey (EU-SILC), which had previously been conducted separately, was integrated into the microcensus as a sub-sample in 2020. Due to the change from a voluntary survey to a survey requiring information in part, combined with a new sample composition, it is not possible to compare the data of the survey year 2020 with previous years (break in time series).</t>
         </is>
       </c>
       <c r="AS43" s="4" t="inlineStr">
@@ -14735,12 +15481,12 @@
       </c>
       <c r="AT43" s="7" t="inlineStr">
         <is>
-          <t>2019 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU43" s="7" t="inlineStr">
         <is>
-          <t>Provisional data for 2019.</t>
+          <t/>
         </is>
       </c>
       <c r="AV43" s="4" t="inlineStr">
@@ -14787,6 +15533,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE43" s="8">
+        <v>1</v>
       </c>
       <c r="BF43" s="4" t="inlineStr">
         <is>
@@ -14812,6 +15561,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN43" s="6">
+        <v>2</v>
+      </c>
       <c r="BO43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14827,6 +15579,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT43" s="6">
+        <v>2020</v>
+      </c>
       <c r="BU43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14863,6 +15618,16 @@
         </is>
       </c>
       <c r="CD43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF43" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14889,7 +15654,7 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -14904,7 +15669,7 @@
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
@@ -15065,12 +15830,12 @@
       </c>
       <c r="AT44" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU44" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV44" s="4" t="inlineStr">
@@ -15117,6 +15882,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE44" s="8">
+        <v>1</v>
       </c>
       <c r="BF44" s="4" t="inlineStr">
         <is>
@@ -15193,6 +15961,16 @@
         </is>
       </c>
       <c r="CD44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF44" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15242,6 +16020,12 @@
           <t/>
         </is>
       </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>50</v>
+      </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15392,12 +16176,12 @@
       </c>
       <c r="AT45" s="7" t="inlineStr">
         <is>
-          <t>2018 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AU45" s="7" t="inlineStr">
         <is>
-          <t>Provisional data for 2018.</t>
+          <t/>
         </is>
       </c>
       <c r="AV45" s="4" t="inlineStr">
@@ -15444,6 +16228,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE45" s="8">
+        <v>1</v>
       </c>
       <c r="BF45" s="4" t="inlineStr">
         <is>
@@ -15469,6 +16256,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN45" s="6">
+        <v>5</v>
+      </c>
       <c r="BO45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15520,6 +16310,16 @@
         </is>
       </c>
       <c r="CD45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF45" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15710,12 +16510,12 @@
       </c>
       <c r="AQ46" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="AR46" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="AS46" s="4" t="inlineStr">
@@ -15725,12 +16525,12 @@
       </c>
       <c r="AT46" s="7" t="inlineStr">
         <is>
-          <t>Daten für 2016 vorläufig und aus methodischen Gründen nur eingeschränkt mit den Vorjahren vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU46" s="7" t="inlineStr">
         <is>
-          <t>Provisional data for 2016; not directly comparable with previous years due to methodological changes. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV46" s="4" t="inlineStr">
@@ -15777,6 +16577,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE46" s="8">
+        <v>1</v>
       </c>
       <c r="BF46" s="4" t="inlineStr">
         <is>
@@ -15802,6 +16605,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN46" s="6">
+        <v>5</v>
+      </c>
       <c r="BO46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15817,6 +16623,9 @@
           <t/>
         </is>
       </c>
+      <c r="BT46" s="6">
+        <v>2016</v>
+      </c>
       <c r="BU46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15853,6 +16662,16 @@
         </is>
       </c>
       <c r="CD46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15919,12 +16738,12 @@
       </c>
       <c r="S47" s="4" t="inlineStr">
         <is>
-          <t>Einsatz des Umweltmanagementsystems EMAS in Deutschland</t>
+          <t>Einsatz des Umweltmanagementsystems EMAS</t>
         </is>
       </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t>Use of EMAS eco-management system in Germany</t>
+          <t>Use of EMAS eco-management system</t>
         </is>
       </c>
       <c r="U47" s="4" t="inlineStr">
@@ -15974,47 +16793,47 @@
       </c>
       <c r="AD47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="AE47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Beschäftigte in EMAS Organisationen in 1 000</t>
         </is>
       </c>
       <c r="AF47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Employees in EMAS organisations in 1,000</t>
         </is>
       </c>
       <c r="AG47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="AH47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>In Deutschland registrierte Organisationsstandorte</t>
         </is>
       </c>
       <c r="AI47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Locations of organisation registered in Germany</t>
         </is>
       </c>
       <c r="AJ47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="AK47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="AL47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS organisations</t>
         </is>
       </c>
       <c r="AM47" s="4" t="inlineStr">
@@ -16037,12 +16856,12 @@
       </c>
       <c r="AQ47" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS: Umweltmanagementsystem (Eco-Management and Audit Scheme).</t>
         </is>
       </c>
       <c r="AR47" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS: Eco-Management and Audit Scheme.</t>
         </is>
       </c>
       <c r="AS47" s="4" t="inlineStr">
@@ -16052,12 +16871,12 @@
       </c>
       <c r="AT47" s="7" t="inlineStr">
         <is>
-          <t>EMAS = Eco-Management and Audit Scheme. Daten ab 2012 durch DIHK revidiert. Dies gilt auch für die Anzahl der Beschäftigten in den Jahren 2013, 2016 und 2017.  Zwischen Bundesergebnis und den Ergebnissen der Länder ergibt sich eine Differenz aufgrund von Standorten im Ausland, die in der Zählung für die Bundesergebnisse enthalten sind.</t>
+          <t/>
         </is>
       </c>
       <c r="AU47" s="7" t="inlineStr">
         <is>
-          <t>EMAS = Eco-Management and Audit Scheme. Data from 2012 onwards revised by the Association of German Chambers of Commerce and Industry, which also revised the numbers on employees for 2013, 2016 and 2017. There is a difference between the federal result and the state results due to sites abroad that are included in the count for the federal results.</t>
+          <t/>
         </is>
       </c>
       <c r="AV47" s="4" t="inlineStr">
@@ -16092,18 +16911,21 @@
       </c>
       <c r="BB47" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="BC47" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="BD47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE47" s="8">
+        <v>0</v>
       </c>
       <c r="BF47" s="4" t="inlineStr">
         <is>
@@ -16122,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="BL47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM47" s="4" t="inlineStr">
         <is>
@@ -16180,6 +17002,16 @@
         </is>
       </c>
       <c r="CD47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16304,32 +17136,32 @@
       </c>
       <c r="AD48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="AF48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Recycled paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="AG48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AH48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2-Emissionen je Fahrleistung der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="AI48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2 emissions per mileage of motor vehicles of the public sector</t>
         </is>
       </c>
       <c r="AJ48" s="4" t="inlineStr">
@@ -16367,44 +17199,42 @@
       </c>
       <c r="AQ48" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich</t>
         </is>
       </c>
       <c r="AR48" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AT48" s="7" t="inlineStr">
         <is>
-          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.    Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2017 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AU48" s="7" t="inlineStr">
         <is>
-          <t>Recycled and total paper use: 2020 provisional data.
-Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable
-Data based on a special evaluation.</t>
+          <t>Due to methodological changes, the results from 2017 are only comparable with previous years to a limited extent.&lt;br&gt;2020 provisional data.</t>
         </is>
       </c>
       <c r="AV48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AW48" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="AX48" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="AY48" s="4" t="inlineStr">
@@ -16436,6 +17266,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE48" s="8">
+        <v>0</v>
       </c>
       <c r="BF48" s="4" t="inlineStr">
         <is>
@@ -16454,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="BL48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM48" s="4" t="inlineStr">
         <is>
@@ -16473,8 +17306,11 @@
       </c>
       <c r="BS48" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="BT48" s="6">
+        <v>2017</v>
       </c>
       <c r="BU48" s="4" t="inlineStr">
         <is>
@@ -16488,8 +17324,11 @@
       </c>
       <c r="BW48" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="BX48" s="9">
+        <v>2016</v>
       </c>
       <c r="BY48" s="4" t="inlineStr">
         <is>
@@ -16512,6 +17351,16 @@
         </is>
       </c>
       <c r="CD48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF48" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16696,12 +17545,12 @@
       </c>
       <c r="AQ49" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 vorläufige Daten.&lt;br&gt;Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
         </is>
       </c>
       <c r="AR49" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 preliminary data.&lt;br&gt;Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
         </is>
       </c>
       <c r="AS49" s="4" t="inlineStr">
@@ -16711,13 +17560,12 @@
       </c>
       <c r="AT49" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Zeitnahprognose.
-Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
+          <t/>
         </is>
       </c>
       <c r="AU49" s="7" t="inlineStr">
         <is>
-          <t>Projected figures for 2020; Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
+          <t/>
         </is>
       </c>
       <c r="AV49" s="4" t="inlineStr">
@@ -16764,6 +17612,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE49" s="8">
+        <v>1</v>
       </c>
       <c r="BF49" s="4" t="inlineStr">
         <is>
@@ -16789,6 +17640,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN49" s="6">
+        <v>10</v>
+      </c>
       <c r="BO49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16840,6 +17694,16 @@
         </is>
       </c>
       <c r="CD49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF49" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16889,6 +17753,12 @@
           <t/>
         </is>
       </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>10</v>
+      </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17039,12 +17909,12 @@
       </c>
       <c r="AT50" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU50" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV50" s="4" t="inlineStr">
@@ -17091,6 +17961,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE50" s="8">
+        <v>2</v>
       </c>
       <c r="BF50" s="4" t="inlineStr">
         <is>
@@ -17116,6 +17989,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN50" s="6">
+        <v>1</v>
+      </c>
       <c r="BO50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17167,6 +18043,16 @@
         </is>
       </c>
       <c r="CD50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF50" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17216,6 +18102,12 @@
           <t/>
         </is>
       </c>
+      <c r="J51" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K51" s="6">
+        <v>4.5</v>
+      </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17233,12 +18125,12 @@
       </c>
       <c r="S51" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoffkonzentration in Nord- und Ostsee</t>
+          <t>Gesamtstickstoffeintrag in Nord- und Ostsee über deutsche Zuflüsse</t>
         </is>
       </c>
       <c r="T51" s="4" t="inlineStr">
         <is>
-          <t>Total nitrogen concentration in the North and Baltic Seas</t>
+          <t>Total nitrogen input to the North Sea and Baltic Sea via German tributaries</t>
         </is>
       </c>
       <c r="U51" s="4" t="inlineStr">
@@ -17293,12 +18185,12 @@
       </c>
       <c r="AE51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleitender, abflussgewichteter Durchschnitt der vergangenen 5 Jahre</t>
         </is>
       </c>
       <c r="AF51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Five-year moving average, weighted for discharge volume</t>
         </is>
       </c>
       <c r="AG51" s="4" t="inlineStr">
@@ -17419,6 +18311,9 @@
           <t/>
         </is>
       </c>
+      <c r="BE51" s="8">
+        <v>1</v>
+      </c>
       <c r="BF51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17443,6 +18338,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN51" s="6">
+        <v>0.5</v>
+      </c>
       <c r="BO51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17494,6 +18392,16 @@
         </is>
       </c>
       <c r="CD51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF51" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17515,24 +18423,24 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_MSYEXAMINED</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
           <t>bar</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17543,6 +18451,12 @@
           <t/>
         </is>
       </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>100</v>
+      </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17555,32 +18469,32 @@
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="S52" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="T52" s="4" t="inlineStr">
         <is>
-          <t>Share of fish stocks assessed for MSY in the North and Baltic seas which are sustainably fished</t>
+          <t>Sustainably managed fish stocks in the North and Baltic seas</t>
         </is>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>MSY-untersuchte Fischbestände</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fish stocks assessed for MSY</t>
         </is>
       </c>
       <c r="X52" s="4" t="inlineStr">
@@ -17615,32 +18529,32 @@
       </c>
       <c r="AD52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="AE52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="AF52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of all stocks assessed for MSY</t>
         </is>
       </c>
       <c r="AG52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="AH52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="AI52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of all managed stocks</t>
         </is>
       </c>
       <c r="AJ52" s="4" t="inlineStr">
@@ -17678,12 +18592,12 @@
       </c>
       <c r="AQ52" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>MSY: höchstmöglicher Dauerertrag (Maximum Sustainable Yield).</t>
         </is>
       </c>
       <c r="AR52" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>MSY: Maximum Sustainable Yield.</t>
         </is>
       </c>
       <c r="AS52" s="4" t="inlineStr">
@@ -17745,6 +18659,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE52" s="8">
+        <v>1</v>
       </c>
       <c r="BF52" s="4" t="inlineStr">
         <is>
@@ -17763,13 +18680,16 @@
         <v>1</v>
       </c>
       <c r="BL52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM52" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
+      <c r="BN52" s="6">
+        <v>10</v>
+      </c>
       <c r="BO52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17821,6 +18741,16 @@
         </is>
       </c>
       <c r="CD52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF52" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17847,7 +18777,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -18005,12 +18935,12 @@
       </c>
       <c r="AQ53" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Teilindex Alpen: Datenreihe ist ausgesetzt.&lt;br&gt;Keine Fortschreibung des Indikators über das Jahr 2016 hinaus.&lt;br&gt;Überarbeitung des Indikators im Rahmen eines Forschungsvorhabens und Anpassung des Zielwertes.</t>
         </is>
       </c>
       <c r="AR53" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Sub index for the Alps: Currently left out of the data set.&lt;br&gt;The indicator will not be updated beyond 2016.&lt;br&gt;As part of a research project the indicator will be revised and the target value adjusted.</t>
         </is>
       </c>
       <c r="AS53" s="4" t="inlineStr">
@@ -18020,12 +18950,12 @@
       </c>
       <c r="AT53" s="7" t="inlineStr">
         <is>
-          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt. Die historischen Werte für 1970 und 1975 sind rekonstruiert. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU53" s="7" t="inlineStr">
         <is>
-          <t>The sub-indicator for the Alps is currently left out of the whole data set. The historical values for 1970 and 1975 are reconstructed. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV53" s="4" t="inlineStr">
@@ -18072,6 +19002,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE53" s="8">
+        <v>1</v>
       </c>
       <c r="BF53" s="4" t="inlineStr">
         <is>
@@ -18097,6 +19030,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN53" s="6">
+        <v>10</v>
+      </c>
       <c r="BO53" s="4" t="inlineStr">
         <is>
           <t/>
@@ -18148,6 +19084,16 @@
         </is>
       </c>
       <c r="CD53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF53" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18274,12 +19220,12 @@
       </c>
       <c r="AE54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der bewerteten Fläche empfindlicher Ökosysteme</t>
         </is>
       </c>
       <c r="AF54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Proportion of sensitive ecosystems</t>
         </is>
       </c>
       <c r="AG54" s="4" t="inlineStr">
@@ -18332,12 +19278,12 @@
       </c>
       <c r="AQ54" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert von 52 % entspricht einer Senkung des Flächenanteils um 35 % gegenüber 2005.&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse mit denen aus den vorherigen Veröffentlichungen nicht vergleichbar.</t>
         </is>
       </c>
       <c r="AR54" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>The target of 52% equates to a 35% reduction in the proportion of land compared with 2005.&lt;br&gt;Due to methodological changes, the results are not comparable with those from previous publications.</t>
         </is>
       </c>
       <c r="AS54" s="4" t="inlineStr">
@@ -18347,12 +19293,12 @@
       </c>
       <c r="AT54" s="7" t="inlineStr">
         <is>
-          <t>Der Zielwert von 50% entspricht einer Senkung des Flächenanteils um 35% gegenüber 2005.</t>
+          <t/>
         </is>
       </c>
       <c r="AU54" s="7" t="inlineStr">
         <is>
-          <t>The target of 50% equates to a 35% reduction in the proportion of land compared with 2005.</t>
+          <t/>
         </is>
       </c>
       <c r="AV54" s="4" t="inlineStr">
@@ -18399,6 +19345,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE54" s="8">
+        <v>1</v>
       </c>
       <c r="BF54" s="4" t="inlineStr">
         <is>
@@ -18424,6 +19373,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN54" s="6">
+        <v>10</v>
+      </c>
       <c r="BO54" s="4" t="inlineStr">
         <is>
           <t/>
@@ -18475,6 +19427,16 @@
         </is>
       </c>
       <c r="CD54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF54" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18501,7 +19463,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
@@ -18536,32 +19498,32 @@
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="S55" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk sowie Bruttoentwicklungsausgaben für internationalen Bodenschutz</t>
+          <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="T55" s="4" t="inlineStr">
         <is>
-          <t>Payments to developing and emerging countries for the verified preservation and/or restoration of forests under the REDD+ rulebook and gross development assistance for international soil protection</t>
+          <t>Payments to developing and emerging countries for the verified preservation and/or restoration of forests under the REDD+ rulebook</t>
         </is>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoentwicklungsausgaben für internationalen Bodenschutz</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross development assistance for international soil protection</t>
         </is>
       </c>
       <c r="X55" s="4" t="inlineStr">
@@ -18659,27 +19621,27 @@
       </c>
       <c r="AQ55" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR55" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="AS55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="AT55" s="7" t="inlineStr">
         <is>
-          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt.</t>
         </is>
       </c>
       <c r="AU55" s="7" t="inlineStr">
         <is>
-          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook. Data based on a special evaluation.</t>
+          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook.</t>
         </is>
       </c>
       <c r="AV55" s="4" t="inlineStr">
@@ -18724,13 +19686,19 @@
       </c>
       <c r="BD55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="BE55" s="8">
+        <v>1</v>
       </c>
       <c r="BF55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="BG55" s="8">
+        <v>1</v>
       </c>
       <c r="BH55" s="4" t="inlineStr">
         <is>
@@ -18744,17 +19712,23 @@
         <v>1</v>
       </c>
       <c r="BL55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="BN55" s="6">
+        <v>10</v>
       </c>
       <c r="BO55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="BP55" s="6">
+        <v>100</v>
       </c>
       <c r="BQ55" s="4" t="inlineStr">
         <is>
@@ -18802,6 +19776,16 @@
         </is>
       </c>
       <c r="CD55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF55" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18843,7 +19827,7 @@
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
@@ -18928,12 +19912,12 @@
       </c>
       <c r="AE56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erfasste Fälle</t>
         </is>
       </c>
       <c r="AF56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Cases recorded</t>
         </is>
       </c>
       <c r="AG56" s="4" t="inlineStr">
@@ -18986,12 +19970,12 @@
       </c>
       <c r="AQ56" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Einwohnerzahlen beziehen sich laut Bundeskriminalamt auf das Vorjahr.</t>
         </is>
       </c>
       <c r="AR56" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>According to the Federal Criminal Police Office, the population numbers relate to the previous year.</t>
         </is>
       </c>
       <c r="AS56" s="4" t="inlineStr">
@@ -19001,12 +19985,12 @@
       </c>
       <c r="AT56" s="7" t="inlineStr">
         <is>
-          <t>Die Einwohnerzahlen beziehen sich laut Bundeskriminalamt auf das Vorjahr.</t>
+          <t/>
         </is>
       </c>
       <c r="AU56" s="7" t="inlineStr">
         <is>
-          <t>According to the Federal Criminal Police Office, the population numbers relate to the previous year.</t>
+          <t/>
         </is>
       </c>
       <c r="AV56" s="4" t="inlineStr">
@@ -19053,6 +20037,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE56" s="8">
+        <v>0</v>
       </c>
       <c r="BF56" s="4" t="inlineStr">
         <is>
@@ -19129,6 +20116,16 @@
         </is>
       </c>
       <c r="CD56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF56" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19200,7 +20197,7 @@
       </c>
       <c r="T57" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="U57" s="4" t="inlineStr">
@@ -19313,12 +20310,12 @@
       </c>
       <c r="AQ57" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="AR57" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation.</t>
         </is>
       </c>
       <c r="AS57" s="4" t="inlineStr">
@@ -19328,12 +20325,12 @@
       </c>
       <c r="AT57" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU57" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV57" s="4" t="inlineStr">
@@ -19368,12 +20365,12 @@
       </c>
       <c r="BB57" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="BC57" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="BD57" s="4" t="inlineStr">
@@ -19456,6 +20453,16 @@
         </is>
       </c>
       <c r="CD57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF57" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19502,8 +20509,14 @@
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>100</v>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
@@ -19577,32 +20590,32 @@
       </c>
       <c r="AD58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="AF58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="AG58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AH58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Partnerländer, mit verbesserter Bewertung</t>
         </is>
       </c>
       <c r="AI58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of partner countries, with improved rating</t>
         </is>
       </c>
       <c r="AJ58" s="4" t="inlineStr">
@@ -19650,17 +20663,17 @@
       </c>
       <c r="AS58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AT58" s="7" t="inlineStr">
         <is>
-          <t>Patnerländer einschließlich Südsudan. Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
+          <t>Partnerländer einschließlich Südsudan.&lt;br&gt;Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
         </is>
       </c>
       <c r="AU58" s="7" t="inlineStr">
         <is>
-          <t>Partner countries including South Sudan. Country list for BMZ bilateral official development cooperation updated in 2020. There are 10 more countries listed plus China and Sudan. </t>
+          <t>Partner countries including South Sudan.&lt;br&gt;Country list for BMZ bilateral official development cooperation updated in 2020. There are 10 more countries listed plus China and Sudan.</t>
         </is>
       </c>
       <c r="AV58" s="4" t="inlineStr">
@@ -19725,7 +20738,7 @@
         <v>1</v>
       </c>
       <c r="BL58" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM58" s="4" t="inlineStr">
         <is>
@@ -19783,6 +20796,16 @@
         </is>
       </c>
       <c r="CD58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19967,12 +20990,12 @@
       </c>
       <c r="AQ59" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2018 nur eingeschränkt mit den Vorjahren vergleichbar. Bis einschließlich 2017 erfolgte die Berechnung nach dem Brutto-Netto-Prinzip;  ab 2018 nach der Zuschussäquivalent-Methode.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR59" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2018 are only comparable with previous years to a limited extent. Up to 2017, the calculation was based on the gross-net principle; from 2018, the grant-equivalent method was used.&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="AS59" s="4" t="inlineStr">
@@ -19982,12 +21005,12 @@
       </c>
       <c r="AT59" s="7" t="inlineStr">
         <is>
-          <t>2021 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU59" s="7" t="inlineStr">
         <is>
-          <t>2021 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV59" s="4" t="inlineStr">
@@ -20034,6 +21057,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE59" s="8">
+        <v>2</v>
       </c>
       <c r="BF59" s="4" t="inlineStr">
         <is>
@@ -20059,6 +21085,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN59" s="6">
+        <v>0.1</v>
+      </c>
       <c r="BO59" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20110,6 +21139,16 @@
         </is>
       </c>
       <c r="CD59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF59" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20151,7 +21190,7 @@
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
@@ -20294,12 +21333,12 @@
       </c>
       <c r="AQ60" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.&lt;br&gt;LDC: am wenigsten entwickelte Länder (Least Developed Countries).&lt;br&gt;Teilweise basieren die Daten auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR60" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.&lt;br&gt;LDC: Least Developed Countries.&lt;br&gt;Data is partially based on a special evaluation and not publicly availabe.</t>
         </is>
       </c>
       <c r="AS60" s="4" t="inlineStr">
@@ -20309,14 +21348,12 @@
       </c>
       <c r="AT60" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung der Anzahl der Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.
-LDCs (Least Developed Countries): am wenigsten entwickelte Länder. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU60" s="7" t="inlineStr">
         <is>
-          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.
-LDCs: least developed countries. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV60" s="4" t="inlineStr">
@@ -20363,6 +21400,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE60" s="8">
+        <v>0</v>
       </c>
       <c r="BF60" s="4" t="inlineStr">
         <is>
@@ -20439,6 +21479,16 @@
         </is>
       </c>
       <c r="CD60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF60" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20488,6 +21538,12 @@
           <t/>
         </is>
       </c>
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1.6</v>
+      </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20623,12 +21679,12 @@
       </c>
       <c r="AQ61" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;LDC = Am wenigsten entwickelte Länder (Least Developed Countries).</t>
         </is>
       </c>
       <c r="AR61" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.&lt;br&gt;2021 provisional data. &lt;br&gt;LDC: least developed countries.</t>
         </is>
       </c>
       <c r="AS61" s="4" t="inlineStr">
@@ -20638,12 +21694,12 @@
       </c>
       <c r="AT61" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. LDCs = Am wenigsten entwickelte Länder (Least Developed Countries). Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="AU61" s="7" t="inlineStr">
         <is>
-          <t>2020 provisional data. LDCs: least developed countries. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="AV61" s="4" t="inlineStr">
@@ -20690,6 +21746,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BE61" s="8">
+        <v>2</v>
       </c>
       <c r="BF61" s="4" t="inlineStr">
         <is>
@@ -20715,6 +21774,9 @@
           <t/>
         </is>
       </c>
+      <c r="BN61" s="6">
+        <v>0.2</v>
+      </c>
       <c r="BO61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20766,6 +21828,16 @@
         </is>
       </c>
       <c r="CD61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF61" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_4b_Grafikoptionen.xlsx
+++ b/Tab_4b_Grafikoptionen.xlsx
@@ -1624,12 +1624,12 @@
       </c>
       <c r="AQ3" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten der kompletten Zeitreihe wurden korrigiert.</t>
         </is>
       </c>
       <c r="AR3" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data of the entire time series has been revised.</t>
         </is>
       </c>
       <c r="AS3" s="4" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="AT3" s="7" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten.</t>
+          <t>1990 zum Teil unsichere Datenbasis.&lt;br&gt;2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AU3" s="7" t="inlineStr">
         <is>
-          <t>2020 provisional data.</t>
+          <t>1990 partly uncertain data basis.&lt;br&gt;2020 provisional data.</t>
         </is>
       </c>
       <c r="AV3" s="4" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="AW3" s="7" t="inlineStr">
         <is>
-          <t>2018 vorläufige Daten.</t>
+          <t>1992 zum Teil unsichere Datenbasis.&lt;br&gt;2018 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AX3" s="7" t="inlineStr">
         <is>
-          <t>2018 provisional data.</t>
+          <t>1992 partly uncertain data basis.&lt;br&gt;2018 provisional data.</t>
         </is>
       </c>
       <c r="AY3" s="4" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="AQ6" s="7" t="inlineStr">
         <is>
-          <t>Todesfälle pro 100 000 Einwohner/ -innen unter 70 Jahren (ohne unter 1-Jährige)&lt;br&gt;Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
+          <t>Todesfälle pro 100 000 Einwohner/ -innen unter 70 Jahren (ohne unter 1-Jährige).&lt;br&gt;Altersstandardisierung: alte Europastandardbevölkerung.</t>
         </is>
       </c>
       <c r="AR6" s="7" t="inlineStr">
         <is>
-          <t>Deaths per 100,000 inhabitants below the age of 70 (excluding those less than one year old)&lt;br&gt;Age-standardised figures based on the old European standard population.</t>
+          <t>Deaths per 100,000 inhabitants below the age of 70 (excluding those less than one year old).&lt;br&gt;Age-standardisation: old European standard population.</t>
         </is>
       </c>
       <c r="AS6" s="4" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="AQ7" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Raucherquote von Erwachsenen: 2021 vorläufige Daten.&lt;br&gt;Jugendliche: 12 bis 17 Jahre.&lt;br&gt; Erwachsene: ab 15 Jahren.</t>
         </is>
       </c>
       <c r="AR7" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Smoking rate among adults: 2021 preliminary data.&lt;br&gt;Adolescents: 12- to 17-year-olds.&lt;br&gt;Adults: 15 years and older.</t>
         </is>
       </c>
       <c r="AS7" s="4" t="inlineStr">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="AQ8" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;Altersstandardisierte Daten (Bevölkerungsstand: 31. Dezember 2015).</t>
+          <t>Die Daten basieren auf einer Sonderauswertungund sind nicht öffentlich zugänglich.&lt;br&gt;Altersstandardisierung: Bevölkerungsstand: 31. Dezember 2015.</t>
         </is>
       </c>
       <c r="AR8" s="7" t="inlineStr">
         <is>
-          <t>Data is based on a special evaluation.&lt;br&gt;Age-standardized data (population status: December 31, 2015).</t>
+          <t>Data is based on a special evaluation and are not publicly available.&lt;br&gt;Age-standardization: population status: December 31, 2015.</t>
         </is>
       </c>
       <c r="AS8" s="4" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="AQ9" s="7" t="inlineStr">
         <is>
-          <t>Altersstandardisierte Daten (neue Europastandardbevölkerung).</t>
+          <t>2021 vorläufige Daten.&lt;br&gt;Altersstandardisierung: neue Europabevölkerung.</t>
         </is>
       </c>
       <c r="AR9" s="7" t="inlineStr">
         <is>
-          <t>Age-standardized data (new European standard population).</t>
+          <t>2021 preliminary data.&lt;br&gt;Age-standardization: new European standard population.</t>
         </is>
       </c>
       <c r="AS9" s="4" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="AQ10" s="7" t="inlineStr">
         <is>
-          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5), gemittelter Index der Messzahlen.</t>
+          <t>Gemittelter Index der Messzahlen: Schwefeldioxid (SO2), Stickstoffoxide (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5).</t>
         </is>
       </c>
       <c r="AR10" s="7" t="inlineStr">
         <is>
-          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
+          <t>Average index of measured values: Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5).</t>
         </is>
       </c>
       <c r="AS10" s="4" t="inlineStr">
@@ -6444,12 +6444,18 @@
       </c>
       <c r="AQ17" s="7" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe: annähernd numerische Gleichheit.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes: Stand 30.06. des jeweiligen Jahres.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+          <t>Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes: 
+- Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.
+- Stand 30.06. des jeweiligen Jahres.
+- Gleichberechtigte Teilhabe: Annähernd numerische Gleichheit.</t>
         </is>
       </c>
       <c r="AR17" s="7" t="inlineStr">
         <is>
-          <t>Equal participation: approximate numerical equality.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;Data is based on a special evaluation and is not publicly available.</t>
+          <t>Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: 
+- Data is based on a special evaluation and is not publicly available.
+- Figures as at 30 June each year.
+- Equal participation: approximate numerical equality.</t>
         </is>
       </c>
       <c r="AS17" s="4" t="inlineStr">
@@ -7822,12 +7828,13 @@
       </c>
       <c r="AQ21" s="7" t="inlineStr">
         <is>
-          <t>Basis EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.&lt;br&gt; Berlin, Bremen und Hamburg (Stadtstaaten): keine Daten vorhanden. Grund: zu wenig Messstellen.</t>
+          <t>Quelldaten auf Basis von Daten der Bund/Länder-Arbeitsgemeinschaft Wasser.&lt;br&gt;Basis EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.&lt;br&gt; Berlin, Bremen und Hamburg (Stadtstaaten): keine Daten vorhanden. Grund: zu wenig Messstellen.</t>
         </is>
       </c>
       <c r="AR21" s="7" t="inlineStr">
         <is>
-          <t>Basis EEA monitoring network: the threshold is an annual average of 50 mg nitrate per litre of groundwater.&lt;br&gt;Berlin, Bremen and Hamburg (city states): no data available. Reason: too few monitoring points.</t>
+          <t>Sourcedata based on data from the German Working Group
+on Water Issues of the Länder and the Federal Government.&lt;br&gt;Basis EEA monitoring network: the threshold is an annual average of 50 mg nitrate per litre of groundwater.&lt;br&gt;Berlin, Bremen and Hamburg (city states): no data available. Reason: too few monitoring points.</t>
         </is>
       </c>
       <c r="AS21" s="4" t="inlineStr">
@@ -8165,12 +8172,12 @@
       </c>
       <c r="AQ22" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;Ab 2019 wird die Zeitreihe für die Bereiche Trinkwasserversorgung und Sanitärversorgung getrennt ausgewiesen.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse ab 2019 nur eingeschränkt mit den Vorjahren vergleichbar (Zeitreihenbruch).&lt;br&gt;Ab 2019 wird die Zeitreihe für die Bereiche Trinkwasserversorgung und Sanitärversorgung getrennt ausgewiesen.</t>
         </is>
       </c>
       <c r="AR22" s="7" t="inlineStr">
         <is>
-          <t>Data is based on a special evaluation and is not publicly available.&lt;br&gt;Beginning in 2019, the time series for drinking water supply and sanitation will be reported separately.</t>
+          <t>Data is based on a special evaluation and is not publicly available.&lt;br&gt;Due to methodological changes, the results from 2019 are only comparable with previous years to a limited extent.&lt;br&gt;Beginning in 2019, the time series for drinking water supply and sanitation will be reported separately.</t>
         </is>
       </c>
       <c r="AS22" s="4" t="inlineStr">
@@ -8538,12 +8545,12 @@
       </c>
       <c r="AT23" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).&lt;br&gt;2020 vorläufige Daten.</t>
+          <t>2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AU23" s="7" t="inlineStr">
         <is>
-          <t>The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).&lt;br&gt;2020 preliminary data.</t>
+          <t>2019 to 2021 preliminary data.</t>
         </is>
       </c>
       <c r="AV23" s="4" t="inlineStr">
@@ -8553,12 +8560,12 @@
       </c>
       <c r="AW23" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).&lt;br&gt;2020 und 2021 vorläufige Daten.</t>
+          <t>2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AX23" s="7" t="inlineStr">
         <is>
-          <t>The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).&lt;br&gt;2020 und 2021 preliminary data.</t>
+          <t>2021 preliminary data.</t>
         </is>
       </c>
       <c r="AY23" s="4" t="inlineStr">
@@ -9570,13 +9577,18 @@
       </c>
       <c r="AQ26" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.&lt;br&gt;Wert von Konsum, Investitionen und Exporten: 2001 bis 2007 interpolierte Daten.</t>
+          <t>Gesamtrohstoffproduktivität:
+- Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.
+- Ab 2010 aufgrund methodischer Änderungen korrigierte Daten.&lt;br&gt;
+Rohstoffeinsatz für Konsum, Investitionen und Exporte: Ab 2010 aufgrund methodischer Änderungen korrigierte Daten.&lt;br&gt;Wert von Konsum, Investitionen und Exporten (preisbereinigt): 2001 bis 2007 interpolierte Daten.</t>
         </is>
       </c>
       <c r="AR26" s="7" t="inlineStr">
         <is>
-          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
-annual increase amounted to about 1.6%.&lt;br&gt;Raw material input for consumption, investment and exports: 2001 to 2007 interpolated data.</t>
+          <t>Raw material input productivity:
+- The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
+annual increase amounted to about 1.6%.
+- From 2010 revised data due to methodological changes.&lt;br&gt;Raw material input for consumption, investment and exports: From 2010 revised data due to methodological changes.&lt;br&gt;Value of consumption, investment and exports (price-adjusted): 2001 to 2007 interpolated data.</t>
         </is>
       </c>
       <c r="AS26" s="4" t="inlineStr">
@@ -9914,12 +9926,12 @@
       </c>
       <c r="AQ27" s="7" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet: 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR27" s="7" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
+          <t>Previous years’ prices chain-linked: 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="AS27" s="4" t="inlineStr">
@@ -10263,12 +10275,12 @@
       </c>
       <c r="AQ28" s="7" t="inlineStr">
         <is>
-          <t>2020 und 2021 vorläufige Daten.</t>
+          <t>2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR28" s="7" t="inlineStr">
         <is>
-          <t>Provisional data for 2020 and 2021.</t>
+          <t>2019 to 2021 provisional data.</t>
         </is>
       </c>
       <c r="AS28" s="4" t="inlineStr">
@@ -10949,12 +10961,12 @@
       </c>
       <c r="AQ30" s="7" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet: 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="AR30" s="7" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
+          <t>Previous years’ prices chain-linked: 2015 = 100.&lt;br&gt;2019 to 2021 provisional data.</t>
         </is>
       </c>
       <c r="AS30" s="4" t="inlineStr">
@@ -11298,12 +11310,12 @@
       </c>
       <c r="AQ31" s="7" t="inlineStr">
         <is>
-          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).&lt;br&gt;2021 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="AR31" s="7" t="inlineStr">
         <is>
-          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;2021 provisional data.</t>
+          <t/>
         </is>
       </c>
       <c r="AS31" s="4" t="inlineStr">
@@ -11313,13 +11325,12 @@
       </c>
       <c r="AT31" s="7" t="inlineStr">
         <is>
-          <t>Bremen: Männer 2010, Frauen 2010 bis 2012 sowie 2015 eingeschränkter Aussagewert.&lt;br&gt;Saarland: Frauen 2010 eingeschränkter Aussagewert.
-&lt;br&gt;Bundesländer: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="AU31" s="7" t="inlineStr">
         <is>
-          <t>Bremen: Men 2010, women 2010 to 2012 and 2015 limited significance.&lt;br&gt;Saarland: Women 2010 limited significance.&lt;br&gt;Länder: The data is based on a special evaluation and is not publicly available</t>
+          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).</t>
         </is>
       </c>
       <c r="AV31" s="4" t="inlineStr">
@@ -11329,12 +11340,18 @@
       </c>
       <c r="AW31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund einer umfassenden Neugestaltung des Mikrozensus ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nur eingeschränkt möglich (Zeitreihenbruch).&lt;br&gt;Bundesländer: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;Bremen: 
+- Männer 2010 eingeschränkter Aussagewert.
+- Frauen 2010 bis 2012 sowie 2015 eingeschränkter Aussagewert.&lt;br&gt;Saarland: 
+- Frauen 2010 eingeschränkter Aussagewert.</t>
         </is>
       </c>
       <c r="AX31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to comprehensive redesign of the microcensus it is not possible to compare the data of the survey year 2020 with previous years (break in time series).&lt;br&gt;Länder: The data is based on a special evaluation and is not publicly available.&lt;br&gt;Bremen: 
+- Men 2010 limited significance.
+- Women 2010 to 2012 and 2015 limited significance.&lt;br&gt;Saarland: 
+- Women 2010 limited significance.</t>
         </is>
       </c>
       <c r="AY31" s="4" t="inlineStr">
@@ -12334,7 +12351,7 @@
       </c>
       <c r="AQ34" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>FTTB/H: Fibre-to-the-Building/Home (Glasfaser bis zum Gebäude/in die Wohnung).&lt;br&gt;CATV: Cable Television (Kabelfernsehen).</t>
         </is>
       </c>
       <c r="AR34" s="7" t="inlineStr">
@@ -12428,6 +12445,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="BN34" s="6">
+        <v>10</v>
       </c>
       <c r="BO34" s="4" t="inlineStr">
         <is>
@@ -13041,12 +13061,16 @@
       </c>
       <c r="AQ36" s="7" t="inlineStr">
         <is>
-          <t>Renten von den Sozialleistungen ausgeschlossen.&lt;br&gt;Für EU: 2019 von Eurostat geschätzte Daten, ab 2020: EU-27 (ohne Vereinigtes Königreich).&lt;br&gt;Die bislang separat durchgeführte Erhebung „Leben in Europa“ (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).</t>
+          <t>Die bislang separat durchgeführte Erhebung „Leben in Europa“ (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen: Renten von den Sozialleistungen ausgeschlossen.&lt;br&gt;Gini-Koeffizient des verfügbaren Äquivalenzeinkommens (EU): 
+- Für EU: 2019 von Eurostat geschätzte Daten. 
+- Ab 2020: EU-27 (ohne Vereinigtes Königreich).</t>
         </is>
       </c>
       <c r="AR36" s="7" t="inlineStr">
         <is>
-          <t>Pensions not included in social benefits.&lt;br&gt;For EU: 2019 data estimated by Eurostat, from 2020: EU-27 (without UK).&lt;br&gt;The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.</t>
+          <t>The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;Gini coefficient of equivalised disposable income before social transfers: Pensions not included in social benefits.&lt;br&gt;Gini coefficient of equivalised disposable income:
+- For EU: 2019 data estimated by Eurostat.
+- From 2020: EU-27 (without UK).</t>
         </is>
       </c>
       <c r="AS36" s="4" t="inlineStr">
@@ -13387,12 +13411,12 @@
       </c>
       <c r="AQ37" s="7" t="inlineStr">
         <is>
-          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
+          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar (Zeitreihenbruch).</t>
         </is>
       </c>
       <c r="AR37" s="7" t="inlineStr">
         <is>
-          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent.</t>
+          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent (break in the time series).</t>
         </is>
       </c>
       <c r="AS37" s="4" t="inlineStr">
@@ -13733,12 +13757,12 @@
       </c>
       <c r="AQ38" s="7" t="inlineStr">
         <is>
-          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
+          <t>Siedlungs- und Verkehrsfläche: Aufgrund methodischer Änderungen in der amtlichen Flächenerhebung (Einführung Amtliches Liegenschaftskataster-Informationssystem (ALKIS) ab Berichtsjahr 2016) sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar (Zeitreihenbruch).&lt;br&gt;Es handelt sich um den nach Einwohnerinnen und Einwohnern gewichteten gleitenden Vierjahresdurchschnitt der ländlichen und nicht ländlichen Räume.</t>
         </is>
       </c>
       <c r="AR38" s="7" t="inlineStr">
         <is>
-          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent.</t>
+          <t>Settlement and transport area: Due to methodological changes in the official survey of land (introduction of the official land register information system (ALKIS) from the 2016 reporting year), the results from 2016 are only comparable with previous years to a limited extent (break in time series).&lt;br&gt;The series shows the four-year moving average of rural and non-rural areas weighted by population.</t>
         </is>
       </c>
       <c r="AS38" s="4" t="inlineStr">
@@ -15815,12 +15839,12 @@
       </c>
       <c r="AQ44" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung. Die Grunddaten hierfür sind öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR44" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Data is based on a special evaluation. The basic data for this is publicly available.</t>
         </is>
       </c>
       <c r="AS44" s="4" t="inlineStr">
@@ -16856,7 +16880,7 @@
       </c>
       <c r="AQ47" s="7" t="inlineStr">
         <is>
-          <t>EMAS: Umweltmanagementsystem (Eco-Management and Audit Scheme).</t>
+          <t>EMAS: Eco-Management and Audit Scheme (Umweltmanagementsystem).</t>
         </is>
       </c>
       <c r="AR47" s="7" t="inlineStr">
@@ -17199,7 +17223,7 @@
       </c>
       <c r="AQ48" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich</t>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR48" s="7" t="inlineStr">
@@ -17229,12 +17253,12 @@
       </c>
       <c r="AW48" s="7" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit dem Vorjahr vergleichbar.</t>
         </is>
       </c>
       <c r="AX48" s="7" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.</t>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous year to a limited extent.</t>
         </is>
       </c>
       <c r="AY48" s="4" t="inlineStr">
@@ -17894,12 +17918,12 @@
       </c>
       <c r="AQ50" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Anpassung des Zieljahres und -wertes von vier Milliarden Euro bis 2020 gemäß Grundsatzbeschluss 2022.</t>
         </is>
       </c>
       <c r="AR50" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Adjustment of the target year and value of four billion euros by 2020 in accordance with the 2022 policy decision.</t>
         </is>
       </c>
       <c r="AS50" s="4" t="inlineStr">
@@ -18592,7 +18616,7 @@
       </c>
       <c r="AQ52" s="7" t="inlineStr">
         <is>
-          <t>MSY: höchstmöglicher Dauerertrag (Maximum Sustainable Yield).</t>
+          <t>MSY: Maximum Sustainable Yield (höchstmöglicher Dauerertrag).</t>
         </is>
       </c>
       <c r="AR52" s="7" t="inlineStr">
@@ -20310,12 +20334,12 @@
       </c>
       <c r="AQ57" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung. Die Grunddaten hierfür sind öffentlich zugänglich.</t>
         </is>
       </c>
       <c r="AR57" s="7" t="inlineStr">
         <is>
-          <t>Data is based on a special evaluation.</t>
+          <t>Data is based on a special evaluation. The basic data for this is publicly available.</t>
         </is>
       </c>
       <c r="AS57" s="4" t="inlineStr">
@@ -20668,7 +20692,7 @@
       </c>
       <c r="AT58" s="7" t="inlineStr">
         <is>
-          <t>Partnerländer einschließlich Südsudan.&lt;br&gt;Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
+          <t>Partnerländer einschließlich Südsudan.&lt;br&gt;Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
         </is>
       </c>
       <c r="AU58" s="7" t="inlineStr">
@@ -21333,12 +21357,12 @@
       </c>
       <c r="AQ60" s="7" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.&lt;br&gt;LDC: am wenigsten entwickelte Länder (Least Developed Countries).&lt;br&gt;Teilweise basieren die Daten auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.&lt;br&gt;Die Daten zu den Forschenden basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.&lt;br&gt;LDC: Least Developed Countries (am wenigsten entwickelte Länder).</t>
         </is>
       </c>
       <c r="AR60" s="7" t="inlineStr">
         <is>
-          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.&lt;br&gt;LDC: Least Developed Countries.&lt;br&gt;Data is partially based on a special evaluation and not publicly availabe.</t>
+          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.&lt;br&gt;Data for researchers is based on a special evaluation and not publicly availabe.&lt;br&gt;LDC: Least Developed Countries.</t>
         </is>
       </c>
       <c r="AS60" s="4" t="inlineStr">
@@ -21679,12 +21703,12 @@
       </c>
       <c r="AQ61" s="7" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;LDC = Am wenigsten entwickelte Länder (Least Developed Countries).</t>
+          <t>Die Daten basieren auf einer Sonderauswertung. Die Grunddaten hierfür sind öffentlich zugänglich.&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;LDC: Least Developed Countries (am wenigsten entwickelte Länder).</t>
         </is>
       </c>
       <c r="AR61" s="7" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.&lt;br&gt;2021 provisional data. &lt;br&gt;LDC: least developed countries.</t>
+          <t>Data is based on a special evaluation. The basic data for this is publicly available.&lt;br&gt;2021 provisional data. &lt;br&gt;LDC: least developed countries.</t>
         </is>
       </c>
       <c r="AS61" s="4" t="inlineStr">
